--- a/sriramModel-nelson-atypical-patientID_10-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_10-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.029700440522476</v>
+        <v>2.010742463064971</v>
       </c>
       <c r="C2">
-        <v>2.064206624608491</v>
+        <v>2.00195910298737</v>
       </c>
       <c r="D2">
-        <v>2.01099552547957</v>
+        <v>2.006653962038482</v>
       </c>
       <c r="E2">
-        <v>2.007886325026019</v>
+        <v>2.001084097351752</v>
       </c>
       <c r="F2">
-        <v>2.032299948466564</v>
+        <v>2.000870743408163</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.059936332725465</v>
+        <v>2.021660165301765</v>
       </c>
       <c r="C3">
-        <v>2.128241985325513</v>
+        <v>2.003983661462897</v>
       </c>
       <c r="D3">
-        <v>2.022120490478877</v>
+        <v>2.013457601791215</v>
       </c>
       <c r="E3">
-        <v>2.015860207332466</v>
+        <v>2.002231250541136</v>
       </c>
       <c r="F3">
-        <v>2.064701739115682</v>
+        <v>2.001785424645098</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.090722749066511</v>
+        <v>2.032758238684998</v>
       </c>
       <c r="C4">
-        <v>2.192066531839558</v>
+        <v>2.006076436787149</v>
       </c>
       <c r="D4">
-        <v>2.033371331710283</v>
+        <v>2.02041678042059</v>
       </c>
       <c r="E4">
-        <v>2.023920279449195</v>
+        <v>2.003443800166907</v>
       </c>
       <c r="F4">
-        <v>2.097182063714952</v>
+        <v>2.002746211802092</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.122076434613179</v>
+        <v>2.044043034644301</v>
       </c>
       <c r="C5">
-        <v>2.255644211930986</v>
+        <v>2.008240339284787</v>
       </c>
       <c r="D5">
-        <v>2.044745062809609</v>
+        <v>2.027537673280388</v>
       </c>
       <c r="E5">
-        <v>2.032065407257457</v>
+        <v>2.004724261374373</v>
       </c>
       <c r="F5">
-        <v>2.129719475766268</v>
+        <v>2.003755402149582</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.154015894534755</v>
+        <v>2.055522214168845</v>
       </c>
       <c r="C6">
-        <v>2.3189420967547</v>
+        <v>2.010478474010209</v>
       </c>
       <c r="D6">
-        <v>2.056239243215173</v>
+        <v>2.03482677180256</v>
       </c>
       <c r="E6">
-        <v>2.040294694467887</v>
+        <v>2.006075341530692</v>
       </c>
       <c r="F6">
-        <v>2.162294263126822</v>
+        <v>2.004815427733861</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.186561258932981</v>
+        <v>2.067204888004736</v>
       </c>
       <c r="C7">
-        <v>2.381930365582254</v>
+        <v>2.012794155143915</v>
       </c>
       <c r="D7">
-        <v>2.067851941110584</v>
+        <v>2.042290955341412</v>
       </c>
       <c r="E7">
-        <v>2.048607471482738</v>
+        <v>2.007499944638782</v>
       </c>
       <c r="F7">
-        <v>2.194888369440495</v>
+        <v>2.005928877682918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.219734191711567</v>
+        <v>2.079101713863667</v>
       </c>
       <c r="C8">
-        <v>2.444582007084858</v>
+        <v>2.015190913266549</v>
       </c>
       <c r="D8">
-        <v>2.079581810246003</v>
+        <v>2.049937483109439</v>
       </c>
       <c r="E8">
-        <v>2.057003289234816</v>
+        <v>2.009001195716285</v>
       </c>
       <c r="F8">
-        <v>2.227485353415946</v>
+        <v>2.007098509258805</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.25355779364767</v>
+        <v>2.09122504893421</v>
       </c>
       <c r="C9">
-        <v>2.506872628469875</v>
+        <v>2.017672516786472</v>
       </c>
       <c r="D9">
-        <v>2.091428050056718</v>
+        <v>2.057774026282699</v>
       </c>
       <c r="E9">
-        <v>2.065481917050975</v>
+        <v>2.01058244455317</v>
       </c>
       <c r="F9">
-        <v>2.260070331338846</v>
+        <v>2.008327249478745</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.288056532256483</v>
+        <v>2.103589121292729</v>
       </c>
       <c r="C10">
-        <v>2.56878033216907</v>
+        <v>2.020242994449799</v>
       </c>
       <c r="D10">
-        <v>2.103390388480817</v>
+        <v>2.065808725634621</v>
       </c>
       <c r="E10">
-        <v>2.074043340596136</v>
+        <v>2.012247278463025</v>
       </c>
       <c r="F10">
-        <v>2.292629928967914</v>
+        <v>2.009618211094028</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.323256007495886</v>
+        <v>2.116210231149317</v>
       </c>
       <c r="C11">
-        <v>2.630285570453018</v>
+        <v>2.022906658103783</v>
       </c>
       <c r="D11">
-        <v>2.115469087861234</v>
+        <v>2.074050216814892</v>
       </c>
       <c r="E11">
-        <v>2.082687760006758</v>
+        <v>2.013999537838147</v>
       </c>
       <c r="F11">
-        <v>2.325152245953897</v>
+        <v>2.010974707709987</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.359182769878314</v>
+        <v>2.12910700174604</v>
       </c>
       <c r="C12">
-        <v>2.69137098505385</v>
+        <v>2.025668126449393</v>
       </c>
       <c r="D12">
-        <v>2.127664951336859</v>
+        <v>2.082507651940062</v>
       </c>
       <c r="E12">
-        <v>2.091415589126798</v>
+        <v>2.015843330543701</v>
       </c>
       <c r="F12">
-        <v>2.357626830212007</v>
+        <v>2.012400268483568</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.395864112735172</v>
+        <v>2.142300649031752</v>
       </c>
       <c r="C13">
-        <v>2.752021271579189</v>
+        <v>2.028532352016911</v>
       </c>
       <c r="D13">
-        <v>2.139979327785503</v>
+        <v>2.091190734809749</v>
       </c>
       <c r="E13">
-        <v>2.100227454989223</v>
+        <v>2.017783050118019</v>
       </c>
       <c r="F13">
-        <v>2.390044660223703</v>
+        <v>2.013898653638133</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.433327820863355</v>
+        <v>2.155815308787848</v>
       </c>
       <c r="C14">
-        <v>2.81222306407673</v>
+        <v>2.03150465306766</v>
       </c>
       <c r="D14">
-        <v>2.152414118156387</v>
+        <v>2.100109765412721</v>
       </c>
       <c r="E14">
-        <v>2.109124199150191</v>
+        <v>2.019823395915976</v>
       </c>
       <c r="F14">
-        <v>2.422398135837075</v>
+        <v>2.015473871377751</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.471601899943747</v>
+        <v>2.169678439362932</v>
       </c>
       <c r="C15">
-        <v>2.871964828647816</v>
+        <v>2.034590749807078</v>
       </c>
       <c r="D15">
-        <v>2.164971784344925</v>
+        <v>2.109275693496222</v>
       </c>
       <c r="E15">
-        <v>2.118106878783849</v>
+        <v>2.021969393585846</v>
       </c>
       <c r="F15">
-        <v>2.454681078856641</v>
+        <v>2.017130197366881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.510714247253076</v>
+        <v>2.183921257266486</v>
       </c>
       <c r="C16">
-        <v>2.93123676443101</v>
+        <v>2.037796800087391</v>
       </c>
       <c r="D16">
-        <v>2.177655358367027</v>
+        <v>2.118700169610941</v>
       </c>
       <c r="E16">
-        <v>2.127176769841098</v>
+        <v>2.02422641740695</v>
       </c>
       <c r="F16">
-        <v>2.486888744356559</v>
+        <v>2.018872197575138</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.550692278038194</v>
+        <v>2.198579301043325</v>
       </c>
       <c r="C17">
-        <v>2.990030714460191</v>
+        <v>2.041129443427876</v>
       </c>
       <c r="D17">
-        <v>2.190468458796563</v>
+        <v>2.128395539905762</v>
       </c>
       <c r="E17">
-        <v>2.136335371954677</v>
+        <v>2.026600215100835</v>
       </c>
       <c r="F17">
-        <v>2.519017843310877</v>
+        <v>2.020704748294258</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.591562520825283</v>
+        <v>2.213693062914588</v>
       </c>
       <c r="C18">
-        <v>3.048340088022811</v>
+        <v>2.044595851170828</v>
       </c>
       <c r="D18">
-        <v>2.203415306503886</v>
+        <v>2.138374959969663</v>
       </c>
       <c r="E18">
-        <v>2.145584412287191</v>
+        <v>2.029096935265039</v>
       </c>
       <c r="F18">
-        <v>2.551066577148045</v>
+        <v>2.02263306672491</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.633350179625912</v>
+        <v>2.229308736499727</v>
       </c>
       <c r="C19">
-        <v>3.106159794561523</v>
+        <v>2.04820376677468</v>
       </c>
       <c r="D19">
-        <v>2.21650074594156</v>
+        <v>2.148652446898923</v>
       </c>
       <c r="E19">
-        <v>2.154925854077079</v>
+        <v>2.031723160295896</v>
       </c>
       <c r="F19">
-        <v>2.583034685037414</v>
+        <v>2.024662730120911</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.676078677581927</v>
+        <v>2.245479154127405</v>
       </c>
       <c r="C20">
-        <v>3.163486188739488</v>
+        <v>2.051961605952235</v>
       </c>
       <c r="D20">
-        <v>2.229730266377329</v>
+        <v>2.159242938621183</v>
       </c>
       <c r="E20">
-        <v>2.164361903663881</v>
+        <v>2.034485939326528</v>
       </c>
       <c r="F20">
-        <v>2.614923504918409</v>
+        <v>2.026799714547709</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.719769165370858</v>
+        <v>2.262264794562725</v>
       </c>
       <c r="C21">
-        <v>3.220317026568666</v>
+        <v>2.055878466852095</v>
       </c>
       <c r="D21">
-        <v>2.243110027653326</v>
+        <v>2.17016237300211</v>
       </c>
       <c r="E21">
-        <v>2.173895019582101</v>
+        <v>2.037392820227933</v>
       </c>
       <c r="F21">
-        <v>2.646736049452025</v>
+        <v>2.029050428306805</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.76444002988046</v>
+        <v>2.279735086449152</v>
       </c>
       <c r="C22">
-        <v>3.276651432745191</v>
+        <v>2.059964282695967</v>
       </c>
       <c r="D22">
-        <v>2.256646897175656</v>
+        <v>2.181427734738469</v>
       </c>
       <c r="E22">
-        <v>2.183527923868917</v>
+        <v>2.040451870466503</v>
       </c>
       <c r="F22">
-        <v>2.678477098252584</v>
+        <v>2.031421741391588</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.810106399537653</v>
+        <v>2.297969871048874</v>
       </c>
       <c r="C23">
-        <v>3.332489879347648</v>
+        <v>2.064229841555039</v>
       </c>
       <c r="D23">
-        <v>2.270348483539494</v>
+        <v>2.193057139460992</v>
       </c>
       <c r="E23">
-        <v>2.193263615540557</v>
+        <v>2.0436717675238</v>
       </c>
       <c r="F23">
-        <v>2.710153307983612</v>
+        <v>2.033921046900161</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.856779671462328</v>
+        <v>2.317061077985418</v>
       </c>
       <c r="C24">
-        <v>3.387834176144827</v>
+        <v>2.068686947340976</v>
       </c>
       <c r="D24">
-        <v>2.284223180838682</v>
+        <v>2.205069918305368</v>
       </c>
       <c r="E24">
-        <v>2.203105384925697</v>
+        <v>2.047061790178437</v>
       </c>
       <c r="F24">
-        <v>2.741773342188077</v>
+        <v>2.036556280551827</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.904467066414825</v>
+        <v>2.337114792762337</v>
       </c>
       <c r="C25">
-        <v>3.442687472477472</v>
+        <v>2.073348496718831</v>
       </c>
       <c r="D25">
-        <v>2.298280206866042</v>
+        <v>2.217486703912086</v>
       </c>
       <c r="E25">
-        <v>2.213056828791519</v>
+        <v>2.050631930176132</v>
       </c>
       <c r="F25">
-        <v>2.773348023305159</v>
+        <v>2.039336000546757</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.953171234851208</v>
+        <v>2.35825334611234</v>
       </c>
       <c r="C26">
-        <v>3.497054270294275</v>
+        <v>2.078228622299242</v>
       </c>
       <c r="D26">
-        <v>2.31252966042384</v>
+        <v>2.230329534837909</v>
       </c>
       <c r="E26">
-        <v>2.223121871908039</v>
+        <v>2.054392918691017</v>
       </c>
       <c r="F26">
-        <v>2.804890509339966</v>
+        <v>2.042269419990346</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.002889940301415</v>
+        <v>2.380617818553925</v>
       </c>
       <c r="C27">
-        <v>3.550940449451893</v>
+        <v>2.083342890647159</v>
       </c>
       <c r="D27">
-        <v>2.326982586695857</v>
+        <v>2.243621942094197</v>
       </c>
       <c r="E27">
-        <v>2.233304787930885</v>
+        <v>2.058356291527058</v>
       </c>
       <c r="F27">
-        <v>2.836416496155838</v>
+        <v>2.045366485649139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.053615820272279</v>
+        <v>2.404370489854821</v>
       </c>
       <c r="C28">
-        <v>3.60435330461666</v>
+        <v>2.088708373083403</v>
       </c>
       <c r="D28">
-        <v>2.341651041141471</v>
+        <v>2.257389049154638</v>
       </c>
       <c r="E28">
-        <v>2.243610221456228</v>
+        <v>2.062534466611906</v>
       </c>
       <c r="F28">
-        <v>2.867944454934638</v>
+        <v>2.048637950137731</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.105336248929092</v>
+        <v>2.429697014715073</v>
       </c>
       <c r="C29">
-        <v>3.65730159400655</v>
+        <v>2.09434401265757</v>
       </c>
       <c r="D29">
-        <v>2.356548172567783</v>
+        <v>2.271657671037017</v>
       </c>
       <c r="E29">
-        <v>2.254043218077459</v>
+        <v>2.066940815487572</v>
       </c>
       <c r="F29">
-        <v>2.899495902978209</v>
+        <v>2.052095428717921</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.158033296993526</v>
+        <v>2.456808068853615</v>
       </c>
       <c r="C30">
-        <v>3.709795600017376</v>
+        <v>2.100270649390515</v>
       </c>
       <c r="D30">
-        <v>2.371688286374634</v>
+        <v>2.286456418910968</v>
       </c>
       <c r="E30">
-        <v>2.264609254887585</v>
+        <v>2.07158974303978</v>
       </c>
       <c r="F30">
-        <v>2.931095716234624</v>
+        <v>2.055751531969491</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.211683804146364</v>
+        <v>2.485939303088386</v>
       </c>
       <c r="C31">
-        <v>3.761847201762716</v>
+        <v>2.106511509208547</v>
       </c>
       <c r="D31">
-        <v>2.387086959754483</v>
+        <v>2.301815802497831</v>
       </c>
       <c r="E31">
-        <v>2.275314273058665</v>
+        <v>2.076496803524811</v>
       </c>
       <c r="F31">
-        <v>2.962772489114627</v>
+        <v>2.059619906065457</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.26625959835179</v>
+        <v>2.517348951995548</v>
       </c>
       <c r="C32">
-        <v>3.813469959541092</v>
+        <v>2.11309243128756</v>
       </c>
       <c r="D32">
-        <v>2.402761137656328</v>
+        <v>2.317768326776095</v>
       </c>
       <c r="E32">
-        <v>2.28616471707179</v>
+        <v>2.081678775251048</v>
       </c>
       <c r="F32">
-        <v>2.994558948847036</v>
+        <v>2.063715407646857</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.321727785053736</v>
+        <v>2.551310397617867</v>
       </c>
       <c r="C33">
-        <v>3.864679211224153</v>
+        <v>2.120042257249588</v>
       </c>
       <c r="D33">
-        <v>2.418729257492084</v>
+        <v>2.334348586436078</v>
       </c>
       <c r="E33">
-        <v>2.297167579981076</v>
+        <v>2.087153800568421</v>
       </c>
       <c r="F33">
-        <v>3.026492432797844</v>
+        <v>2.068054173760584</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.378051146527789</v>
+        <v>2.588099025772899</v>
       </c>
       <c r="C34">
-        <v>3.915492180533323</v>
+        <v>2.127393253463626</v>
       </c>
       <c r="D34">
-        <v>2.435011418475601</v>
+        <v>2.351593341518973</v>
       </c>
       <c r="E34">
-        <v>2.308330451965193</v>
+        <v>2.09294150877255</v>
       </c>
       <c r="F34">
-        <v>3.058615438420457</v>
+        <v>2.072653793393316</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.435188625849576</v>
+        <v>2.627971229349888</v>
       </c>
       <c r="C35">
-        <v>3.965928097135851</v>
+        <v>2.135181637394672</v>
       </c>
       <c r="D35">
-        <v>2.451629507214449</v>
+        <v>2.369541577496591</v>
       </c>
       <c r="E35">
-        <v>2.319661569478201</v>
+        <v>2.099063124864828</v>
       </c>
       <c r="F35">
-        <v>3.090976256727072</v>
+        <v>2.077533474306688</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.493095854133422</v>
+        <v>2.67113515401985</v>
       </c>
       <c r="C36">
-        <v>4.016008328438497</v>
+        <v>2.143448195321664</v>
       </c>
       <c r="D36">
-        <v>2.468607312967942</v>
+        <v>2.3882345446056</v>
       </c>
       <c r="E36">
-        <v>2.331169884514024</v>
+        <v>2.105541659969685</v>
       </c>
       <c r="F36">
-        <v>3.123629701214051</v>
+        <v>2.08271415676916</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.551725773283177</v>
+        <v>2.717716661450257</v>
       </c>
       <c r="C37">
-        <v>4.065756522879482</v>
+        <v>2.15223898464781</v>
       </c>
       <c r="D37">
-        <v>2.485970738943361</v>
+        <v>2.407715769164926</v>
       </c>
       <c r="E37">
-        <v>2.342865131749545</v>
+        <v>2.112402044558543</v>
       </c>
       <c r="F37">
-        <v>3.156637908162027</v>
+        <v>2.088218821530309</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.611029227032386</v>
+        <v>2.767728506560345</v>
       </c>
       <c r="C38">
-        <v>4.115198764404099</v>
+        <v>2.161606166957672</v>
       </c>
       <c r="D38">
-        <v>2.503748052175308</v>
+        <v>2.428031008949938</v>
       </c>
       <c r="E38">
-        <v>2.354757899726858</v>
+        <v>2.119671306643281</v>
       </c>
       <c r="F38">
-        <v>3.190071291129339</v>
+        <v>2.09407257446786</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.670955573045803</v>
+        <v>2.821051744326665</v>
       </c>
       <c r="C39">
-        <v>4.16436373927924</v>
+        <v>2.171609027115495</v>
       </c>
       <c r="D39">
-        <v>2.52197009970036</v>
+        <v>2.449228156761843</v>
       </c>
       <c r="E39">
-        <v>2.366859725616371</v>
+        <v>2.127378787821975</v>
       </c>
       <c r="F39">
-        <v>3.224009843878838</v>
+        <v>2.100303038483482</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.731453275092897</v>
+        <v>2.877438580812546</v>
       </c>
       <c r="C40">
-        <v>4.213282907607653</v>
+        <v>2.182315107249187</v>
       </c>
       <c r="D40">
-        <v>2.540670516057833</v>
+        <v>2.471357094583901</v>
       </c>
       <c r="E40">
-        <v>2.379183194244854</v>
+        <v>2.135556301361063</v>
       </c>
       <c r="F40">
-        <v>3.258544131143226</v>
+        <v>2.106940515999284</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.792470470326645</v>
+        <v>2.936539150987536</v>
       </c>
       <c r="C41">
-        <v>4.261990689215088</v>
+        <v>2.193801485058586</v>
       </c>
       <c r="D41">
-        <v>2.559885982749671</v>
+        <v>2.494469454155812</v>
       </c>
       <c r="E41">
-        <v>2.391742044193476</v>
+        <v>2.144238385146721</v>
       </c>
       <c r="F41">
-        <v>3.293776509286182</v>
+        <v>2.114018361198565</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.85395547783561</v>
+        <v>2.997943707475501</v>
       </c>
       <c r="C42">
-        <v>4.310524655502611</v>
+        <v>2.206156474169342</v>
       </c>
       <c r="D42">
-        <v>2.579656530487262</v>
+        <v>2.518618250868911</v>
       </c>
       <c r="E42">
-        <v>2.404551293667202</v>
+        <v>2.153462513572396</v>
       </c>
       <c r="F42">
-        <v>3.329822958487209</v>
+        <v>2.121573297470125</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.915857251264978</v>
+        <v>3.061228587534028</v>
       </c>
       <c r="C43">
-        <v>4.358925725090906</v>
+        <v>2.21948133870318</v>
       </c>
       <c r="D43">
-        <v>2.600025849398909</v>
+        <v>2.543857428659463</v>
       </c>
       <c r="E43">
-        <v>2.41762738950104</v>
+        <v>2.163269298594495</v>
       </c>
       <c r="F43">
-        <v>3.366814481698706</v>
+        <v>2.129645846828927</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.978125773972068</v>
+        <v>3.125994048672534</v>
       </c>
       <c r="C44">
-        <v>4.407238361587872</v>
+        <v>2.233892226426002</v>
       </c>
       <c r="D44">
-        <v>2.621041596722551</v>
+        <v>2.570241311287053</v>
       </c>
       <c r="E44">
-        <v>2.430988369806891</v>
+        <v>2.173702755912812</v>
       </c>
       <c r="F44">
-        <v>3.4048984575393</v>
+        <v>2.138280748868122</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.040712384208714</v>
+        <v>3.191887240261798</v>
       </c>
       <c r="C45">
-        <v>4.455510768276854</v>
+        <v>2.249522298569047</v>
       </c>
       <c r="D45">
-        <v>2.642755707429565</v>
+        <v>2.597823861551642</v>
       </c>
       <c r="E45">
-        <v>2.444654025808061</v>
+        <v>2.184810481327554</v>
       </c>
       <c r="F45">
-        <v>3.444240009488285</v>
+        <v>2.147527381487648</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.103570076753724</v>
+        <v>3.258612243597742</v>
       </c>
       <c r="C46">
-        <v>4.503795063547408</v>
+        <v>2.266523913951615</v>
       </c>
       <c r="D46">
-        <v>2.665224703957906</v>
+        <v>2.626657772751802</v>
       </c>
       <c r="E46">
-        <v>2.458646138633458</v>
+        <v>2.196643876270195</v>
       </c>
       <c r="F46">
-        <v>3.485022872801491</v>
+        <v>2.157440268081259</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.166653627991211</v>
+        <v>3.325929882630925</v>
       </c>
       <c r="C47">
-        <v>4.552147465365783</v>
+        <v>2.285070593689097</v>
       </c>
       <c r="D47">
-        <v>2.688509983079796</v>
+        <v>2.656793461625454</v>
       </c>
       <c r="E47">
-        <v>2.472988709628685</v>
+        <v>2.209258249303109</v>
       </c>
       <c r="F47">
-        <v>3.52744930763902</v>
+        <v>2.168079577153189</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.229919783113497</v>
+        <v>3.39365185342139</v>
       </c>
       <c r="C48">
-        <v>4.600628438019994</v>
+        <v>2.305358357781163</v>
       </c>
       <c r="D48">
-        <v>2.712678049984977</v>
+        <v>2.688277975514634</v>
       </c>
       <c r="E48">
-        <v>2.487708206046058</v>
+        <v>2.222712966456275</v>
       </c>
       <c r="F48">
-        <v>3.571738575453683</v>
+        <v>2.179511663452936</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.293327360477327</v>
+        <v>3.461632544177754</v>
       </c>
       <c r="C49">
-        <v>4.649302748836058</v>
+        <v>2.327605870189644</v>
       </c>
       <c r="D49">
-        <v>2.73780066479286</v>
+        <v>2.721153676076716</v>
       </c>
       <c r="E49">
-        <v>2.502833891535463</v>
+        <v>2.237071422629323</v>
       </c>
       <c r="F49">
-        <v>3.618123145001848</v>
+        <v>2.19180958717117</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.356837292286702</v>
+        <v>3.52976069610351</v>
       </c>
       <c r="C50">
-        <v>4.698239504969914</v>
+        <v>2.352052307207011</v>
       </c>
       <c r="D50">
-        <v>2.763954857906179</v>
+        <v>2.755456907816008</v>
       </c>
       <c r="E50">
-        <v>2.518398177767841</v>
+        <v>2.252400931382761</v>
       </c>
       <c r="F50">
-        <v>3.666841792810449</v>
+        <v>2.205053565044685</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.420412620303853</v>
+        <v>3.597951700171054</v>
       </c>
       <c r="C51">
-        <v>4.747512080151247</v>
+        <v>2.378951120523523</v>
       </c>
       <c r="D51">
-        <v>2.791222755646248</v>
+        <v>2.791216712121734</v>
       </c>
       <c r="E51">
-        <v>2.534437000628041</v>
+        <v>2.268772312861389</v>
       </c>
       <c r="F51">
-        <v>3.718128569590188</v>
+        <v>2.219331293845631</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.484018473569137</v>
+        <v>3.666141514019618</v>
       </c>
       <c r="C52">
-        <v>4.797197958484928</v>
+        <v>2.408559546920629</v>
       </c>
       <c r="D52">
-        <v>2.819691172311317</v>
+        <v>2.828453575428666</v>
       </c>
       <c r="E52">
-        <v>2.550990234828144</v>
+        <v>2.286259396659204</v>
       </c>
       <c r="F52">
-        <v>3.772197061746568</v>
+        <v>2.234738146932452</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.54762205247915</v>
+        <v>3.734281726445521</v>
       </c>
       <c r="C53">
-        <v>4.847378361216143</v>
+        <v>2.441120895734767</v>
       </c>
       <c r="D53">
-        <v>2.849450793887744</v>
+        <v>2.867178264740205</v>
       </c>
       <c r="E53">
-        <v>2.568102339557453</v>
+        <v>2.304938248896962</v>
       </c>
       <c r="F53">
-        <v>3.829220460149394</v>
+        <v>2.251377107733798</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.611192905570662</v>
+        <v>3.802335607341385</v>
       </c>
       <c r="C54">
-        <v>4.898138210350439</v>
+        <v>2.476840267755143</v>
       </c>
       <c r="D54">
-        <v>2.880595178298011</v>
+        <v>2.907391000686505</v>
       </c>
       <c r="E54">
-        <v>2.5858228422649</v>
+        <v>2.324885999759045</v>
       </c>
       <c r="F54">
-        <v>3.889309590945318</v>
+        <v>2.26935806542416</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.674703096758788</v>
+        <v>3.870275169133208</v>
       </c>
       <c r="C55">
-        <v>4.949565697319626</v>
+        <v>2.515855409494353</v>
       </c>
       <c r="D55">
-        <v>2.913219286028104</v>
+        <v>2.949080840947442</v>
       </c>
       <c r="E55">
-        <v>2.604207200655622</v>
+        <v>2.34617925143703</v>
       </c>
       <c r="F55">
-        <v>3.952492758252306</v>
+        <v>2.288796649848674</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.738126999691072</v>
+        <v>3.938079000950685</v>
       </c>
       <c r="C56">
-        <v>5.001750909647688</v>
+        <v>2.55820826755575</v>
       </c>
       <c r="D56">
-        <v>2.947416858580598</v>
+        <v>2.992225714879674</v>
       </c>
       <c r="E56">
-        <v>2.623317242498333</v>
+        <v>2.368892066462689</v>
       </c>
       <c r="F56">
-        <v>4.018700475694843</v>
+        <v>2.309812352757446</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.801441050579829</v>
+        <v>4.00573060434656</v>
       </c>
       <c r="C57">
-        <v>5.054784054069675</v>
+        <v>2.603824988170807</v>
       </c>
       <c r="D57">
-        <v>2.98327726405809</v>
+        <v>3.036792561964816</v>
       </c>
       <c r="E57">
-        <v>2.64322214847056</v>
+        <v>2.393093531549879</v>
       </c>
       <c r="F57">
-        <v>4.087762168514387</v>
+        <v>2.332525547453711</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.864623522197641</v>
+        <v>4.073217152727248</v>
       </c>
       <c r="C58">
-        <v>5.10875331314019</v>
+        <v>2.65251343515857</v>
       </c>
       <c r="D58">
-        <v>3.020881430029902</v>
+        <v>3.082737928124617</v>
       </c>
       <c r="E58">
-        <v>2.663999338192836</v>
+        <v>2.418844929405466</v>
       </c>
       <c r="F58">
-        <v>4.159416377109896</v>
+        <v>2.357053362625732</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.927654311172927</v>
+        <v>4.14052857436146</v>
       </c>
       <c r="C59">
-        <v>5.163742311786946</v>
+        <v>2.703979760867791</v>
       </c>
       <c r="D59">
-        <v>3.060297430702437</v>
+        <v>3.130009039236249</v>
       </c>
       <c r="E59">
-        <v>2.685735165068247</v>
+        <v>2.446196623162265</v>
       </c>
       <c r="F59">
-        <v>4.233333143641826</v>
+        <v>2.383504278451995</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.990514746745434</v>
+        <v>4.207656866686796</v>
       </c>
       <c r="C60">
-        <v>5.21982717598184</v>
+        <v>2.757861996251228</v>
       </c>
       <c r="D60">
-        <v>3.101575619781421</v>
+        <v>3.178545200388252</v>
       </c>
       <c r="E60">
-        <v>2.70852589444984</v>
+        <v>2.475184842840561</v>
       </c>
       <c r="F60">
-        <v>4.309143897609965</v>
+        <v>2.411971665839808</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.053187422227693</v>
+        <v>4.274595593849307</v>
       </c>
       <c r="C61">
-        <v>5.277073278938586</v>
+        <v>2.813770231739897</v>
       </c>
       <c r="D61">
-        <v>3.144743906477772</v>
+        <v>3.22827937720395</v>
       </c>
       <c r="E61">
-        <v>2.732478387446133</v>
+        <v>2.505828639920068</v>
       </c>
       <c r="F61">
-        <v>4.386471433659302</v>
+        <v>2.442526580240223</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.115656049863419</v>
+        <v>4.34133950473881</v>
       </c>
       <c r="C62">
-        <v>5.335531808099217</v>
+        <v>2.871323010873765</v>
       </c>
       <c r="D62">
-        <v>3.189803594406539</v>
+        <v>3.279139879936642</v>
       </c>
       <c r="E62">
-        <v>2.757710715414239</v>
+        <v>2.538127325030647</v>
       </c>
       <c r="F62">
-        <v>4.464954792987239</v>
+        <v>2.475210500503637</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.177905338656913</v>
+        <v>4.407884248989478</v>
       </c>
       <c r="C63">
-        <v>5.395236381328385</v>
+        <v>2.930173279679231</v>
       </c>
       <c r="D63">
-        <v>3.236726448477498</v>
+        <v>3.331052079421433</v>
       </c>
       <c r="E63">
-        <v>2.784352831283755</v>
+        <v>2.572058632465704</v>
       </c>
       <c r="F63">
-        <v>4.544266165399005</v>
+        <v>2.51002901533436</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.239920895572908</v>
+        <v>4.474226173082961</v>
       </c>
       <c r="C64">
-        <v>5.456199976671988</v>
+        <v>2.990022107286616</v>
       </c>
       <c r="D64">
-        <v>3.285453483322095</v>
+        <v>3.383940049433418</v>
       </c>
       <c r="E64">
-        <v>2.812546109875411</v>
+        <v>2.607578366383025</v>
       </c>
       <c r="F64">
-        <v>4.624119606097963</v>
+        <v>2.546947425647417</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.301689143799811</v>
+        <v>4.540362165481786</v>
       </c>
       <c r="C65">
-        <v>5.518412515814425</v>
+        <v>3.050622348461212</v>
       </c>
       <c r="D65">
-        <v>3.335895803171428</v>
+        <v>3.437728054116994</v>
       </c>
       <c r="E65">
-        <v>2.842442334597742</v>
+        <v>2.644620894981488</v>
       </c>
       <c r="F65">
-        <v>4.704273234374757</v>
+        <v>2.585889976304883</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.363197255965893</v>
+        <v>4.606289547953859</v>
       </c>
       <c r="C66">
-        <v>5.581839423562603</v>
+        <v>3.111775682047345</v>
       </c>
       <c r="D66">
-        <v>3.387937586384636</v>
+        <v>3.492341822718771</v>
       </c>
       <c r="E66">
-        <v>2.874201657560082</v>
+        <v>2.683101045044415</v>
       </c>
       <c r="F66">
-        <v>4.78452705857224</v>
+        <v>2.626742106498665</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.424433106806817</v>
+        <v>4.672005991627498</v>
       </c>
       <c r="C67">
-        <v>5.64642142845264</v>
+        <v>3.17332631639165</v>
       </c>
       <c r="D67">
-        <v>3.441440905952333</v>
+        <v>3.547709598349327</v>
       </c>
       <c r="E67">
-        <v>2.907988885179404</v>
+        <v>2.722917184216011</v>
       </c>
       <c r="F67">
-        <v>4.864718434658347</v>
+        <v>2.669356144955578</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.485385233182677</v>
+        <v>4.737509459056218</v>
       </c>
       <c r="C68">
-        <v>5.712075747440538</v>
+        <v>3.235153653476668</v>
       </c>
       <c r="D68">
-        <v>3.496251809903555</v>
+        <v>3.603762944186168</v>
       </c>
       <c r="E68">
-        <v>2.943967682424369</v>
+        <v>2.763955184933524</v>
       </c>
       <c r="F68">
-        <v>4.944716621808363</v>
+        <v>2.713560028228851</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.546042801935792</v>
+        <v>4.802798164813123</v>
       </c>
       <c r="C69">
-        <v>5.778698531647761</v>
+        <v>3.297165211655779</v>
       </c>
       <c r="D69">
-        <v>3.552206950803336</v>
+        <v>3.660437317243924</v>
       </c>
       <c r="E69">
-        <v>2.98229268602391</v>
+        <v>2.806092706143884</v>
       </c>
       <c r="F69">
-        <v>5.024417352330154</v>
+        <v>2.759167091554076</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.606395587386088</v>
+        <v>4.867870545494508</v>
       </c>
       <c r="C70">
-        <v>5.846168663606789</v>
+        <v>3.359290456815895</v>
       </c>
       <c r="D70">
-        <v>3.609140036456605</v>
+        <v>3.717672436819477</v>
       </c>
       <c r="E70">
-        <v>3.023099241133396</v>
+        <v>2.849203503976916</v>
       </c>
       <c r="F70">
-        <v>5.103737904758201</v>
+        <v>2.805985823904198</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.66643395039645</v>
+        <v>4.932725239340245</v>
       </c>
       <c r="C71">
-        <v>5.91435218552366</v>
+        <v>3.421475775305638</v>
       </c>
       <c r="D71">
-        <v>3.666887497658485</v>
+        <v>3.775412473911391</v>
       </c>
       <c r="E71">
-        <v>3.066491532543844</v>
+        <v>2.893161422049038</v>
       </c>
       <c r="F71">
-        <v>5.182612876545114</v>
+        <v>2.853828420647156</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.726148821336939</v>
+        <v>4.997361071566237</v>
       </c>
       <c r="C72">
-        <v>5.983107103290432</v>
+        <v>3.483680458123318</v>
       </c>
       <c r="D72">
-        <v>3.725293019008552</v>
+        <v>3.833606094251267</v>
       </c>
       <c r="E72">
-        <v>3.112530245725527</v>
+        <v>2.937843754056638</v>
       </c>
       <c r="F72">
-        <v>5.260990683778669</v>
+        <v>2.902517384965824</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.785531685560225</v>
+        <v>5.061777043184208</v>
       </c>
       <c r="C73">
-        <v>6.052288246699401</v>
+        <v>3.545873589637127</v>
       </c>
       <c r="D73">
-        <v>3.784210792717245</v>
+        <v>3.892206386413896</v>
       </c>
       <c r="E73">
-        <v>3.161221789767336</v>
+        <v>2.98313384336098</v>
       </c>
       <c r="F73">
-        <v>5.338830729322132</v>
+        <v>2.951889927455353</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.844574569080169</v>
+        <v>5.125972322413671</v>
       </c>
       <c r="C74">
-        <v>6.121751611901703</v>
+        <v>3.608031655991132</v>
       </c>
       <c r="D74">
-        <v>3.843507521220459</v>
+        <v>3.95117070312036</v>
       </c>
       <c r="E74">
-        <v>3.212511307563586</v>
+        <v>3.028922950991885</v>
       </c>
       <c r="F74">
-        <v>5.416101145728928</v>
+        <v>3.001800396645099</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.903270024781524</v>
+        <v>5.189946237445697</v>
       </c>
       <c r="C75">
-        <v>6.191358064465819</v>
+        <v>3.67013672591597</v>
       </c>
       <c r="D75">
-        <v>3.90306336780622</v>
+        <v>4.010460444076066</v>
       </c>
       <c r="E75">
-        <v>3.266281718103183</v>
+        <v>3.075111358770417</v>
       </c>
       <c r="F75">
-        <v>5.492777013273876</v>
+        <v>3.052121006229832</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.961611118753656</v>
+        <v>5.253698269912544</v>
       </c>
       <c r="C76">
-        <v>6.260976199657496</v>
+        <v>3.732175106795593</v>
       </c>
       <c r="D76">
-        <v>3.962772068019767</v>
+        <v>4.070040799844434</v>
       </c>
       <c r="E76">
-        <v>3.322359251218242</v>
+        <v>3.121608878726692</v>
       </c>
       <c r="F76">
-        <v>5.56883896326337</v>
+        <v>3.102741429671865</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.019591416244865</v>
+        <v>5.317228048745995</v>
       </c>
       <c r="C77">
-        <v>6.330484355447763</v>
+        <v>3.794136316456201</v>
       </c>
       <c r="D77">
-        <v>4.022540433138501</v>
+        <v>4.129880474150014</v>
       </c>
       <c r="E77">
-        <v>3.380525470163454</v>
+        <v>3.168334890675324</v>
       </c>
       <c r="F77">
-        <v>5.644272081153646</v>
+        <v>3.153567585952504</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.077204967102452</v>
+        <v>5.380535344128632</v>
       </c>
       <c r="C78">
-        <v>6.399771832523741</v>
+        <v>3.856012300586398</v>
       </c>
       <c r="D78">
-        <v>4.082287480589479</v>
+        <v>4.189951398230926</v>
       </c>
       <c r="E78">
-        <v>3.440532915817581</v>
+        <v>3.215218019983264</v>
       </c>
       <c r="F78">
-        <v>5.719065028913095</v>
+        <v>3.204520037146806</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.134446290818654</v>
+        <v>5.443620061432787</v>
       </c>
       <c r="C79">
-        <v>6.468739442619804</v>
+        <v>3.917796862971581</v>
       </c>
       <c r="D79">
-        <v>4.141943370908059</v>
+        <v>4.250228447451743</v>
       </c>
       <c r="E79">
-        <v>3.502121998773419</v>
+        <v>3.262195575106952</v>
       </c>
       <c r="F79">
-        <v>5.793209378948648</v>
+        <v>3.255532210285306</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.191310361180337</v>
+        <v>5.506482235108558</v>
       </c>
       <c r="C80">
-        <v>6.537299563026135</v>
+        <v>3.979485227956989</v>
       </c>
       <c r="D80">
-        <v>4.201448201884541</v>
+        <v>4.310689167212135</v>
       </c>
       <c r="E80">
-        <v>3.565036130832295</v>
+        <v>3.3092128535768</v>
       </c>
       <c r="F80">
-        <v>5.866699102077773</v>
+        <v>3.306548638149814</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.247792590597904</v>
+        <v>5.569122022511795</v>
       </c>
       <c r="C81">
-        <v>6.605375724661917</v>
+        <v>4.041073706346294</v>
       </c>
       <c r="D81">
-        <v>4.260750804519737</v>
+        <v>4.371313512361398</v>
       </c>
       <c r="E81">
-        <v>3.629033477414163</v>
+        <v>3.356222384448861</v>
       </c>
       <c r="F81">
-        <v>5.939530133008278</v>
+        <v>3.35752331275237</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.303888814138211</v>
+        <v>5.631539697706183</v>
       </c>
       <c r="C82">
-        <v>6.672901945167793</v>
+        <v>4.102559446760543</v>
       </c>
       <c r="D82">
-        <v>4.319807644109336</v>
+        <v>4.432083603900113</v>
       </c>
       <c r="E82">
-        <v>3.693894525935816</v>
+        <v>3.403183154143133</v>
       </c>
       <c r="F82">
-        <v>6.011700025944708</v>
+        <v>3.408418184261899</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.359595273085259</v>
+        <v>5.693735645271232</v>
       </c>
       <c r="C83">
-        <v>6.739821952290048</v>
+        <v>4.163940246356267</v>
       </c>
       <c r="D83">
-        <v>4.378581804653174</v>
+        <v>4.492983503848784</v>
       </c>
       <c r="E83">
-        <v>3.759426043894202</v>
+        <v>3.450059859070013</v>
       </c>
       <c r="F83">
-        <v>6.083207692405206</v>
+        <v>3.459201856498995</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.414908598708348</v>
+        <v>5.755710354149892</v>
       </c>
       <c r="C84">
-        <v>6.806088300765234</v>
+        <v>4.225214404919277</v>
       </c>
       <c r="D84">
-        <v>4.437042057202192</v>
+        <v>4.553999009158696</v>
       </c>
       <c r="E84">
-        <v>3.825461811386767</v>
+        <v>3.496822200179031</v>
       </c>
       <c r="F84">
-        <v>6.154053188227377</v>
+        <v>3.509848486323808</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.469825796012854</v>
+        <v>5.817464411589191</v>
       </c>
       <c r="C85">
-        <v>6.871661481556764</v>
+        <v>4.286380613371971</v>
       </c>
       <c r="D85">
-        <v>4.495162036362639</v>
+        <v>4.615117464396131</v>
       </c>
       <c r="E85">
-        <v>3.891861531052115</v>
+        <v>3.543444240725995</v>
       </c>
       <c r="F85">
-        <v>6.22423753517914</v>
+        <v>3.560336844429684</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6.524344143460869</v>
+        <v>5.878998497210842</v>
       </c>
       <c r="C86">
-        <v>6.93650898109751</v>
+        <v>4.347437869258309</v>
       </c>
       <c r="D86">
-        <v>4.552919487583645</v>
+        <v>4.67632759247345</v>
       </c>
       <c r="E86">
-        <v>3.958508202711698</v>
+        <v>3.589903830286491</v>
       </c>
       <c r="F86">
-        <v>6.293762586441328</v>
+        <v>3.610649514481767</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.578461513501266</v>
+        <v>5.940313377230773</v>
       </c>
       <c r="C87">
-        <v>7.000604685772587</v>
+        <v>4.408385412526567</v>
       </c>
       <c r="D87">
-        <v>4.610295923423047</v>
+        <v>4.737619342433364</v>
       </c>
       <c r="E87">
-        <v>4.025306067897255</v>
+        <v>3.636182098068556</v>
       </c>
       <c r="F87">
-        <v>6.362630873064829</v>
+        <v>3.660772225784615</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.632175860340198</v>
+        <v>6.001409898850659</v>
       </c>
       <c r="C88">
-        <v>7.063927648314841</v>
+        <v>4.469222672105533</v>
       </c>
       <c r="D88">
-        <v>4.667275595651563</v>
+        <v>4.798983753153186</v>
       </c>
       <c r="E88">
-        <v>4.092175860400348</v>
+        <v>3.682262992295132</v>
       </c>
       <c r="F88">
-        <v>6.430845553723905</v>
+        <v>3.710693308142088</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.685485510809587</v>
+        <v>6.062288984841613</v>
       </c>
       <c r="C89">
-        <v>7.126461701763322</v>
+        <v>4.529949222651689</v>
       </c>
       <c r="D89">
-        <v>4.723845374738915</v>
+        <v>4.860412831627857</v>
       </c>
       <c r="E89">
-        <v>4.159053340049145</v>
+        <v>3.728132903097161</v>
       </c>
       <c r="F89">
-        <v>6.498410300744344</v>
+        <v>3.760403243731164</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.73838909783506</v>
+        <v>6.122951628347082</v>
       </c>
       <c r="C90">
-        <v>7.188194872164196</v>
+        <v>4.590564758232238</v>
       </c>
       <c r="D90">
-        <v>4.779994362293317</v>
+        <v>4.921899444561915</v>
       </c>
       <c r="E90">
-        <v>4.225886513408105</v>
+        <v>3.773780311483772</v>
       </c>
       <c r="F90">
-        <v>6.565329242355626</v>
+        <v>3.809894295347378</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.790885536478258</v>
+        <v>6.183398887896134</v>
       </c>
       <c r="C91">
-        <v>7.249118780808519</v>
+        <v>4.651069070129899</v>
       </c>
       <c r="D91">
-        <v>4.835713534851387</v>
+        <v>4.983437221088877</v>
       </c>
       <c r="E91">
-        <v>4.292633224351481</v>
+        <v>3.819195495617006</v>
       </c>
       <c r="F91">
-        <v>6.631606882934196</v>
+        <v>3.859160198500946</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.842974010100669</v>
+        <v>6.243631882637592</v>
       </c>
       <c r="C92">
-        <v>7.30922800949421</v>
+        <v>4.71146202691448</v>
       </c>
       <c r="D92">
-        <v>4.890995466932777</v>
+        <v>5.045020469920923</v>
       </c>
       <c r="E92">
-        <v>4.359259357613866</v>
+        <v>3.864370278603504</v>
       </c>
       <c r="F92">
-        <v>6.697248083035484</v>
+        <v>3.908195908672599</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.894653938940777</v>
+        <v>6.303651787798946</v>
       </c>
       <c r="C93">
-        <v>7.368519842760728</v>
+        <v>4.771743558424195</v>
       </c>
       <c r="D93">
-        <v>4.945834096863796</v>
+        <v>5.106644101638788</v>
       </c>
       <c r="E93">
-        <v>4.425737326270211</v>
+        <v>3.909297811891665</v>
       </c>
       <c r="F93">
-        <v>6.762258004656696</v>
+        <v>3.956997394673964</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.945924993402095</v>
+        <v>6.363459830370465</v>
       </c>
       <c r="C94">
-        <v>7.426993871226361</v>
+        <v>4.831913643183806</v>
       </c>
       <c r="D94">
-        <v>5.000224525672657</v>
+        <v>5.168303560776986</v>
       </c>
       <c r="E94">
-        <v>4.492044813654244</v>
+        <v>3.95397238685575</v>
       </c>
       <c r="F94">
-        <v>6.826642062093641</v>
+        <v>4.005561467536315</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.996787070923873</v>
+        <v>6.423057285008815</v>
       </c>
       <c r="C95">
-        <v>7.484651672585604</v>
+        <v>4.891972299011722</v>
       </c>
       <c r="D95">
-        <v>5.054162836291638</v>
+        <v>5.22999476765127</v>
       </c>
       <c r="E95">
-        <v>4.558163733002377</v>
+        <v>3.998389276718201</v>
       </c>
       <c r="F95">
-        <v>6.890405891865317</v>
+        <v>4.053885640695667</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.047240286458011</v>
+        <v>6.482445470149869</v>
       </c>
       <c r="C96">
-        <v>7.541496520934881</v>
+        <v>4.9519195756529</v>
       </c>
       <c r="D96">
-        <v>5.107645954753111</v>
+        <v>5.291714065526322</v>
       </c>
       <c r="E96">
-        <v>4.624079432896088</v>
+        <v>4.042544601542627</v>
       </c>
       <c r="F96">
-        <v>6.953555323268308</v>
+        <v>4.101968013110154</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.097284957170594</v>
+        <v>6.541625744342893</v>
       </c>
       <c r="C97">
-        <v>7.597533078101264</v>
+        <v>5.011755549882359</v>
       </c>
       <c r="D97">
-        <v>5.160671606343803</v>
+        <v>5.3534581737702</v>
       </c>
       <c r="E97">
-        <v>4.689779953268233</v>
+        <v>4.086435209163105</v>
       </c>
       <c r="F97">
-        <v>7.016096353021356</v>
+        <v>4.14980717306646</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.14692158644009</v>
+        <v>6.600599502782247</v>
       </c>
       <c r="C98">
-        <v>7.652767198696482</v>
+        <v>5.071480320420863</v>
       </c>
       <c r="D98">
-        <v>5.21323815912107</v>
+        <v>5.415224146756147</v>
       </c>
       <c r="E98">
-        <v>4.755255644031896</v>
+        <v>4.130058575177375</v>
       </c>
       <c r="F98">
-        <v>7.078035134638429</v>
+        <v>4.197402119535239</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.196150856072058</v>
+        <v>6.659368174037501</v>
       </c>
       <c r="C99">
-        <v>7.70720577097942</v>
+        <v>5.131094003689709</v>
       </c>
       <c r="D99">
-        <v>5.265344519011908</v>
+        <v>5.477009337490621</v>
       </c>
       <c r="E99">
-        <v>4.820498695969559</v>
+        <v>4.173412717222083</v>
       </c>
       <c r="F99">
-        <v>7.139377940545055</v>
+        <v>4.244752198474749</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.244973615671833</v>
+        <v>6.717933216972526</v>
       </c>
       <c r="C100">
-        <v>7.760856567321663</v>
+        <v>5.190596730649021</v>
       </c>
       <c r="D100">
-        <v>5.316990066804878</v>
+        <v>5.538811365151362</v>
       </c>
       <c r="E100">
-        <v>4.885502799765124</v>
+        <v>4.216496121968033</v>
       </c>
       <c r="F100">
-        <v>7.200131145117008</v>
+        <v>4.291857043580864</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.293390875252513</v>
+        <v>6.77629611784684</v>
       </c>
       <c r="C101">
-        <v>7.813728105687059</v>
+        <v>5.249988644334449</v>
       </c>
       <c r="D101">
-        <v>5.368174604767686</v>
+        <v>5.60062808665033</v>
       </c>
       <c r="E101">
-        <v>4.950262830739454</v>
+        <v>4.259307679998304</v>
       </c>
       <c r="F101">
-        <v>7.260301209358156</v>
+        <v>4.338716521585438</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7.341403793677365</v>
+        <v>6.834458387594299</v>
       </c>
       <c r="C102">
-        <v>7.865829526994952</v>
+        <v>5.309269897884566</v>
       </c>
       <c r="D102">
-        <v>5.418898284260789</v>
+        <v>5.66245757105915</v>
       </c>
       <c r="E102">
-        <v>5.01477462037237</v>
+        <v>4.301846633939133</v>
       </c>
       <c r="F102">
-        <v>7.319894662444558</v>
+        <v>4.385330711715026</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.389013669565593</v>
+        <v>6.892421559292475</v>
       </c>
       <c r="C103">
-        <v>7.917170489490802</v>
+        <v>5.368440652924462</v>
       </c>
       <c r="D103">
-        <v>5.469161610918003</v>
+        <v>5.72429807723778</v>
       </c>
       <c r="E103">
-        <v>5.079034799628204</v>
+        <v>4.344112530830014</v>
       </c>
       <c r="F103">
-        <v>7.378918094488302</v>
+        <v>4.431699862894144</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.436221932747744</v>
+        <v>6.950187185713355</v>
       </c>
       <c r="C104">
-        <v>7.967761078457419</v>
+        <v>5.427501078140311</v>
       </c>
       <c r="D104">
-        <v>5.518965332345645</v>
+        <v>5.786148033844665</v>
       </c>
       <c r="E104">
-        <v>5.143040671239239</v>
+        <v>4.38610518175548</v>
       </c>
       <c r="F104">
-        <v>7.437378144301599</v>
+        <v>4.477824368500615</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.483030135293201</v>
+        <v>7.007756837002456</v>
       </c>
       <c r="C105">
-        <v>8.017611728236831</v>
+        <v>5.486451348144479</v>
       </c>
       <c r="D105">
-        <v>5.568310524599219</v>
+        <v>5.848006021583227</v>
       </c>
       <c r="E105">
-        <v>5.206790096089968</v>
+        <v>4.42782462720609</v>
       </c>
       <c r="F105">
-        <v>7.495281485437742</v>
+        <v>4.523704754569336</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.529439945490893</v>
+        <v>7.065132098688606</v>
       </c>
       <c r="C106">
-        <v>8.066733154047119</v>
+        <v>5.54529164249927</v>
       </c>
       <c r="D106">
-        <v>5.61719842260485</v>
+        <v>5.909870757394224</v>
       </c>
       <c r="E106">
-        <v>5.270281395691073</v>
+        <v>4.469271107203151</v>
       </c>
       <c r="F106">
-        <v>7.552634816546094</v>
+        <v>4.569341649465612</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.575453138257166</v>
+        <v>7.12231456968912</v>
       </c>
       <c r="C107">
-        <v>8.115136297778523</v>
+        <v>5.604022144971363</v>
       </c>
       <c r="D107">
-        <v>5.665630486010895</v>
+        <v>5.97174108064032</v>
       </c>
       <c r="E107">
-        <v>5.333513273091733</v>
+        <v>4.510445039497057</v>
       </c>
       <c r="F107">
-        <v>7.609444848676749</v>
+        <v>4.614735768255278</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.621071588093446</v>
+        <v>7.179305860400978</v>
       </c>
       <c r="C108">
-        <v>8.162832270968625</v>
+        <v>5.662643042902402</v>
       </c>
       <c r="D108">
-        <v>5.713608314887183</v>
+        <v>6.033615940389997</v>
       </c>
       <c r="E108">
-        <v>5.396484750195529</v>
+        <v>4.551346985527196</v>
       </c>
       <c r="F108">
-        <v>7.665718302907068</v>
+        <v>4.659887900978681</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.666297262785148</v>
+        <v>7.236107591092223</v>
       </c>
       <c r="C109">
-        <v>8.209832311333038</v>
+        <v>5.721154526673737</v>
       </c>
       <c r="D109">
-        <v>5.761133667108088</v>
+        <v>6.09549438422182</v>
       </c>
       <c r="E109">
-        <v>5.459195117965441</v>
+        <v>4.591977649855421</v>
       </c>
       <c r="F109">
-        <v>7.721461890631526</v>
+        <v>4.704798901736557</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.711132216437121</v>
+        <v>7.292721390200988</v>
       </c>
       <c r="C110">
-        <v>8.256147738368357</v>
+        <v>5.779556789252349</v>
       </c>
       <c r="D110">
-        <v>5.808208407995627</v>
+        <v>6.157375549263277</v>
       </c>
       <c r="E110">
-        <v>5.521643894906578</v>
+        <v>4.632337831020547</v>
       </c>
       <c r="F110">
-        <v>7.776682323734793</v>
+        <v>4.749469675960703</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.755578584604807</v>
+        <v>7.349148892863998</v>
       </c>
       <c r="C111">
-        <v>8.301789929390148</v>
+        <v>5.837850025805015</v>
       </c>
       <c r="D111">
-        <v>5.854834551081874</v>
+        <v>6.219258651888077</v>
       </c>
       <c r="E111">
-        <v>5.583830791569759</v>
+        <v>4.672428447865517</v>
       </c>
       <c r="F111">
-        <v>7.831386288267074</v>
+        <v>4.793901176815747</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.79963857718157</v>
+        <v>7.405391739439879</v>
       </c>
       <c r="C112">
-        <v>8.346770277084735</v>
+        <v>5.89603443337112</v>
       </c>
       <c r="D112">
-        <v>5.901014199383686</v>
+        <v>6.281142980756098</v>
       </c>
       <c r="E112">
-        <v>5.645755676375411</v>
+        <v>4.71225048758581</v>
       </c>
       <c r="F112">
-        <v>7.885580459407882</v>
+        <v>4.838094396332365</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.843314472757156</v>
+        <v>7.461451574278008</v>
       </c>
       <c r="C113">
-        <v>8.391100204173485</v>
+        <v>5.954110210604266</v>
       </c>
       <c r="D113">
-        <v>5.946749571664448</v>
+        <v>6.343027889618805</v>
       </c>
       <c r="E113">
-        <v>5.707418571873365</v>
+        <v>4.751805029268992</v>
       </c>
       <c r="F113">
-        <v>7.939271477837988</v>
+        <v>4.882050358682347</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.886608613736097</v>
+        <v>7.517330044502708</v>
       </c>
       <c r="C114">
-        <v>8.434791074269722</v>
+        <v>6.012077557538463</v>
       </c>
       <c r="D114">
-        <v>5.992042963774447</v>
+        <v>6.404912790732274</v>
       </c>
       <c r="E114">
-        <v>5.768819620547424</v>
+        <v>4.791093210881972</v>
       </c>
       <c r="F114">
-        <v>7.992465959784032</v>
+        <v>4.92577011529045</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.92952340097566</v>
+        <v>7.573028798875744</v>
       </c>
       <c r="C115">
-        <v>8.477854230456257</v>
+        <v>6.069936675388458</v>
       </c>
       <c r="D115">
-        <v>6.036896752514724</v>
+        <v>6.466797149459851</v>
       </c>
       <c r="E115">
-        <v>5.829959064526506</v>
+        <v>4.830116232306882</v>
       </c>
       <c r="F115">
-        <v>8.045170481145874</v>
+        <v>4.969254740577607</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.972061287960016</v>
+        <v>7.628549486708106</v>
       </c>
       <c r="C116">
-        <v>8.52030092820848</v>
+        <v>6.127687766377738</v>
       </c>
       <c r="D116">
-        <v>6.08131337712089</v>
+        <v>6.528680479276156</v>
       </c>
       <c r="E116">
-        <v>5.890837250875618</v>
+        <v>4.868875343922147</v>
       </c>
       <c r="F116">
-        <v>8.097391581814149</v>
+        <v>5.012505328060795</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.014224781488434</v>
+        <v>7.683893756938452</v>
       </c>
       <c r="C117">
-        <v>8.562142357454771</v>
+        <v>6.185331033590378</v>
       </c>
       <c r="D117">
-        <v>6.125295339119764</v>
+        <v>6.590562336993677</v>
       </c>
       <c r="E117">
-        <v>5.95145458746613</v>
+        <v>4.907371836174186</v>
       </c>
       <c r="F117">
-        <v>8.149135755104359</v>
+        <v>5.055522986341457</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8.056016427168338</v>
+        <v>7.739063257206396</v>
       </c>
       <c r="C118">
-        <v>8.60338960548048</v>
+        <v>6.242866680843455</v>
       </c>
       <c r="D118">
-        <v>6.168845198445144</v>
+        <v>6.652442318800675</v>
       </c>
       <c r="E118">
-        <v>6.011811556085199</v>
+        <v>4.945607040824543</v>
       </c>
       <c r="F118">
-        <v>8.200409450600386</v>
+        <v>5.098308837840865</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8.097438822989362</v>
+        <v>7.794059633022652</v>
       </c>
       <c r="C119">
-        <v>8.644053671553095</v>
+        <v>6.300294912574631</v>
       </c>
       <c r="D119">
-        <v>6.21196553621403</v>
+        <v>6.714320056609725</v>
       </c>
       <c r="E119">
-        <v>6.071908694685453</v>
+        <v>4.983582317104568</v>
       </c>
       <c r="F119">
-        <v>8.251219065069593</v>
+        <v>5.140864015498713</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8.138494593210229</v>
+        <v>7.848884526957666</v>
       </c>
       <c r="C120">
-        <v>8.68414543667396</v>
+        <v>6.357615933745765</v>
       </c>
       <c r="D120">
-        <v>6.254659008377137</v>
+        <v>6.776195214705294</v>
       </c>
       <c r="E120">
-        <v>6.131746602153382</v>
+        <v>5.02129905654731</v>
       </c>
       <c r="F120">
-        <v>8.301570946449104</v>
+        <v>5.183189660533646</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8.179186404978463</v>
+        <v>7.903539577983749</v>
       </c>
       <c r="C121">
-        <v>8.723675670756759</v>
+        <v>6.414829949757275</v>
       </c>
       <c r="D121">
-        <v>6.296928297053251</v>
+        <v>6.838067486779062</v>
       </c>
       <c r="E121">
-        <v>6.191325921122087</v>
+        <v>5.058758671016892</v>
       </c>
       <c r="F121">
-        <v>8.35147138495239</v>
+        <v>5.225286921152793</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.219516948611183</v>
+        <v>7.958026420795336</v>
       </c>
       <c r="C122">
-        <v>8.762655015645677</v>
+        <v>6.471937166371053</v>
       </c>
       <c r="D122">
-        <v>6.338776072009091</v>
+        <v>6.899936593289622</v>
       </c>
       <c r="E122">
-        <v>6.250647342962575</v>
+        <v>5.095962595815964</v>
       </c>
       <c r="F122">
-        <v>8.400926617371617</v>
+        <v>5.267156951260465</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.25948894297926</v>
+        <v>8.012346685309369</v>
       </c>
       <c r="C123">
-        <v>8.801093981677937</v>
+        <v>6.528937789643131</v>
       </c>
       <c r="D123">
-        <v>6.380205114121777</v>
+        <v>6.961802279054371</v>
       </c>
       <c r="E123">
-        <v>6.309711595558796</v>
+        <v>5.132912282488062</v>
       </c>
       <c r="F123">
-        <v>8.449942819614341</v>
+        <v>5.308800906686771</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.299105131801628</v>
+        <v>8.066501995749613</v>
       </c>
       <c r="C124">
-        <v>8.839002949635994</v>
+        <v>6.585832025863792</v>
       </c>
       <c r="D124">
-        <v>6.421218169100887</v>
+        <v>7.023664311056604</v>
       </c>
       <c r="E124">
-        <v>6.368519441818369</v>
+        <v>5.169609197619885</v>
       </c>
       <c r="F124">
-        <v>8.498526109884818</v>
+        <v>5.350219948858896</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.338368277101864</v>
+        <v>8.120493970790275</v>
       </c>
       <c r="C125">
-        <v>8.876392144141729</v>
+        <v>6.642620081504009</v>
       </c>
       <c r="D125">
-        <v>6.461817998707122</v>
+        <v>7.08552247647507</v>
       </c>
       <c r="E125">
-        <v>6.427071677606468</v>
+        <v>5.206054820669386</v>
       </c>
       <c r="F125">
-        <v>8.54668254326686</v>
+        <v>5.391415236310729</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.377281162490338</v>
+        <v>8.174324222078674</v>
       </c>
       <c r="C126">
-        <v>8.913271644057586</v>
+        <v>6.699302163167519</v>
       </c>
       <c r="D126">
-        <v>6.502007447464324</v>
+        <v>7.147376580914377</v>
       </c>
       <c r="E126">
-        <v>6.485369119037323</v>
+        <v>5.24225063982252</v>
       </c>
       <c r="F126">
-        <v>8.59441811373337</v>
+        <v>5.432387931733473</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.415846585338631</v>
+        <v>8.227994354906457</v>
       </c>
       <c r="C127">
-        <v>8.949651419336046</v>
+        <v>6.755878477546887</v>
       </c>
       <c r="D127">
-        <v>6.541789320229315</v>
+        <v>7.20922644679779</v>
       </c>
       <c r="E127">
-        <v>6.543412610985046</v>
+        <v>5.278198152633997</v>
       </c>
       <c r="F127">
-        <v>8.641738750315131</v>
+        <v>5.473139195636436</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.454067358115557</v>
+        <v>8.28150596691615</v>
       </c>
       <c r="C128">
-        <v>8.985541224917293</v>
+        <v>6.812349231387489</v>
       </c>
       <c r="D128">
-        <v>6.58116645419316</v>
+        <v>7.271071911909044</v>
       </c>
       <c r="E128">
-        <v>6.601203031079462</v>
+        <v>5.313898861580321</v>
       </c>
       <c r="F128">
-        <v>8.688650318631545</v>
+        <v>5.513670187840039</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.491946303767971</v>
+        <v>8.334860648323932</v>
       </c>
       <c r="C129">
-        <v>9.020950679744804</v>
+        <v>6.868714631445561</v>
       </c>
       <c r="D129">
-        <v>6.620141711984228</v>
+        <v>7.332912828072858</v>
       </c>
       <c r="E129">
-        <v>6.65874124986797</v>
+        <v>5.349354275108115</v>
       </c>
       <c r="F129">
-        <v>8.735158617935967</v>
+        <v>5.553982068251273</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.529486254331436</v>
+        <v>8.3880599814612</v>
       </c>
       <c r="C130">
-        <v>9.055889319949836</v>
+        <v>6.924974884468325</v>
       </c>
       <c r="D130">
-        <v>6.658717953220092</v>
+        <v>7.39474905981124</v>
       </c>
       <c r="E130">
-        <v>6.716028176310759</v>
+        <v>5.384565904155927</v>
       </c>
       <c r="F130">
-        <v>8.781269382577344</v>
+        <v>5.594075993022225</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.566690049198158</v>
+        <v>8.441105540289291</v>
       </c>
       <c r="C131">
-        <v>9.090366429454525</v>
+        <v>6.98113019713623</v>
       </c>
       <c r="D131">
-        <v>6.696898049758736</v>
+        <v>7.456580483419232</v>
       </c>
       <c r="E131">
-        <v>6.773064744107008</v>
+        <v>5.419535262520203</v>
       </c>
       <c r="F131">
-        <v>8.826988279653655</v>
+        <v>5.633953117698229</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.603560532987997</v>
+        <v>8.493998890497352</v>
       </c>
       <c r="C132">
-        <v>9.124391169804769</v>
+        <v>7.03718077607641</v>
       </c>
       <c r="D132">
-        <v>6.734684879047431</v>
+        <v>7.518406986403854</v>
       </c>
       <c r="E132">
-        <v>6.829851871711309</v>
+        <v>5.4542638648867</v>
       </c>
       <c r="F132">
-        <v>8.872320910334009</v>
+        <v>5.67361459380171</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.640100550829979</v>
+        <v>8.546741588855877</v>
       </c>
       <c r="C133">
-        <v>9.157972608438849</v>
+        <v>7.093126827794884</v>
       </c>
       <c r="D133">
-        <v>6.772081320996799</v>
+        <v>7.580228465922615</v>
       </c>
       <c r="E133">
-        <v>6.886390518441084</v>
+        <v>5.488753226005301</v>
       </c>
       <c r="F133">
-        <v>8.917272808165665</v>
+        <v>5.71306157039599</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.676312949501511</v>
+        <v>8.599335183405316</v>
       </c>
       <c r="C134">
-        <v>9.191119584686913</v>
+        <v>7.14896855869625</v>
       </c>
       <c r="D134">
-        <v>6.809090260646733</v>
+        <v>7.642044828060016</v>
       </c>
       <c r="E134">
-        <v>6.94268165439584</v>
+        <v>5.523004860198957</v>
       </c>
       <c r="F134">
-        <v>8.961849440102</v>
+        <v>5.752295192399319</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.712200583619168</v>
+        <v>8.651781212841001</v>
       </c>
       <c r="C135">
-        <v>9.223840811143985</v>
+        <v>7.204706175030918</v>
       </c>
       <c r="D135">
-        <v>6.845714583158141</v>
+        <v>7.703855987205148</v>
       </c>
       <c r="E135">
-        <v>6.998726247353713</v>
+        <v>5.557020279860621</v>
       </c>
       <c r="F135">
-        <v>9.006056205483388</v>
+        <v>5.791316601625737</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.747766292821103</v>
+        <v>8.704081206735735</v>
       </c>
       <c r="C136">
-        <v>9.25614487434394</v>
+        <v>7.260339882895809</v>
       </c>
       <c r="D136">
-        <v>6.881957168010169</v>
+        <v>7.76566186541479</v>
       </c>
       <c r="E136">
-        <v>7.054525290711545</v>
+        <v>5.590800996113087</v>
       </c>
       <c r="F136">
-        <v>9.049898436773313</v>
+        <v>5.830126935025257</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.783012913841684</v>
+        <v>8.756236684982373</v>
       </c>
       <c r="C137">
-        <v>9.288040179837505</v>
+        <v>7.315869888206896</v>
       </c>
       <c r="D137">
-        <v>6.917820903936466</v>
+        <v>7.827462391785833</v>
       </c>
       <c r="E137">
-        <v>7.110079783393122</v>
+        <v>5.624348515636183</v>
       </c>
       <c r="F137">
-        <v>9.093381399105173</v>
+        <v>5.868727325999139</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.817943296735962</v>
+        <v>8.808249158154966</v>
       </c>
       <c r="C138">
-        <v>9.319534993676287</v>
+        <v>7.371296396682285</v>
       </c>
       <c r="D138">
-        <v>6.9533086704473</v>
+        <v>7.889257501873943</v>
       </c>
       <c r="E138">
-        <v>7.165390731778287</v>
+        <v>5.657664342511756</v>
       </c>
       <c r="F138">
-        <v>9.136510290824701</v>
+        <v>5.90711890317716</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8.852560267812722</v>
+        <v>8.860120126841425</v>
       </c>
       <c r="C139">
-        <v>9.350637437925865</v>
+        <v>7.426619613832757</v>
       </c>
       <c r="D139">
-        <v>6.988423341487711</v>
+        <v>7.951047137087441</v>
       </c>
       <c r="E139">
-        <v>7.220459152164952</v>
+        <v>5.690749977794411</v>
       </c>
       <c r="F139">
-        <v>9.179290243460571</v>
+        <v>5.945302790713295</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8.886866646248896</v>
+        <v>8.91185108214971</v>
       </c>
       <c r="C140">
-        <v>9.3813554801921</v>
+        <v>7.481839744937799</v>
       </c>
       <c r="D140">
-        <v>7.023167796858078</v>
+        <v>8.012831243898301</v>
       </c>
       <c r="E140">
-        <v>7.275286067443576</v>
+        <v>5.723606914568352</v>
       </c>
       <c r="F140">
-        <v>9.221726322148761</v>
+        <v>5.983280108329881</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8.920865251842347</v>
+        <v>8.963443505046051</v>
       </c>
       <c r="C141">
-        <v>9.411696944223426</v>
+        <v>7.536956995044263</v>
       </c>
       <c r="D141">
-        <v>7.057544902600974</v>
+        <v>8.074609774833815</v>
       </c>
       <c r="E141">
-        <v>7.329872506634595</v>
+        <v>5.756236644997543</v>
       </c>
       <c r="F141">
-        <v>9.263823525924213</v>
+        <v>6.021051970663427</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8.954558897783675</v>
+        <v>9.014898866827387</v>
       </c>
       <c r="C142">
-        <v>9.441669513558089</v>
+        <v>7.591971568943546</v>
       </c>
       <c r="D142">
-        <v>7.091557521431036</v>
+        <v>8.136382685648444</v>
       </c>
       <c r="E142">
-        <v>7.384219506069588</v>
+        <v>5.788640654319134</v>
       </c>
       <c r="F142">
-        <v>9.30558678805957</v>
+        <v>6.058619487778027</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8.987950375619947</v>
+        <v>9.066218628594465</v>
       </c>
       <c r="C143">
-        <v>9.471280720576701</v>
+        <v>7.646883671169208</v>
       </c>
       <c r="D143">
-        <v>7.125208511806888</v>
+        <v>8.198149938677235</v>
       </c>
       <c r="E143">
-        <v>7.438328104531757</v>
+        <v>5.820820420125127</v>
       </c>
       <c r="F143">
-        <v>9.347020977005977</v>
+        <v>6.095983764523773</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.021042470786549</v>
+        <v>9.117404241622143</v>
       </c>
       <c r="C144">
-        <v>9.500537959996748</v>
+        <v>7.701693505981045</v>
       </c>
       <c r="D144">
-        <v>7.158500722082174</v>
+        <v>8.259911497634199</v>
       </c>
       <c r="E144">
-        <v>7.492199345568362</v>
+        <v>5.852777419080651</v>
       </c>
       <c r="F144">
-        <v>9.388130895951756</v>
+        <v>6.13314590087432</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.053837965266997</v>
+        <v>9.168457146968501</v>
       </c>
       <c r="C145">
-        <v>9.529448496394616</v>
+        <v>7.756401277356907</v>
       </c>
       <c r="D145">
-        <v>7.191436993252168</v>
+        <v>8.321667332941452</v>
       </c>
       <c r="E145">
-        <v>7.545834281477672</v>
+        <v>5.884513117504655</v>
       </c>
       <c r="F145">
-        <v>9.428921283030672</v>
+        <v>6.170106991503763</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.086339617731111</v>
+        <v>9.219378775766728</v>
       </c>
       <c r="C146">
-        <v>9.558019444421886</v>
+        <v>7.811007188985207</v>
       </c>
       <c r="D146">
-        <v>7.2240201576585</v>
+        <v>8.383417415852668</v>
       </c>
       <c r="E146">
-        <v>7.599233962393567</v>
+        <v>5.916028976617198</v>
       </c>
       <c r="F146">
-        <v>9.469396814706952</v>
+        <v>6.206868126084847</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.11855017622322</v>
+        <v>9.270170548964407</v>
       </c>
       <c r="C147">
-        <v>9.586257789206917</v>
+        <v>7.865511444251963</v>
       </c>
       <c r="D147">
-        <v>7.256253036991694</v>
+        <v>8.445161720956122</v>
       </c>
       <c r="E147">
-        <v>7.652399443640873</v>
+        <v>5.947326452545604</v>
       </c>
       <c r="F147">
-        <v>9.509562102262301</v>
+        <v>6.243430388857093</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.150472379509772</v>
+        <v>9.320833877514225</v>
       </c>
       <c r="C148">
-        <v>9.614170390629885</v>
+        <v>7.919914246238389</v>
       </c>
       <c r="D148">
-        <v>7.288138443635067</v>
+        <v>8.506900226230178</v>
       </c>
       <c r="E148">
-        <v>7.705331786840332</v>
+        <v>5.978406992996981</v>
       </c>
       <c r="F148">
-        <v>9.549421693393402</v>
+        <v>6.279794858954196</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.182108947100886</v>
+        <v>9.371370162261453</v>
       </c>
       <c r="C149">
-        <v>9.641763968651572</v>
+        <v>7.974215797708121</v>
       </c>
       <c r="D149">
-        <v>7.319679179215029</v>
+        <v>8.568632912051761</v>
       </c>
       <c r="E149">
-        <v>7.75803205195487</v>
+        <v>6.009272039403945</v>
       </c>
       <c r="F149">
-        <v>9.588980077076711</v>
+        <v>6.315962610116041</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.213462583036863</v>
+        <v>9.421780794021046</v>
       </c>
       <c r="C150">
-        <v>9.669045118599465</v>
+        <v>8.02841630110497</v>
       </c>
       <c r="D150">
-        <v>7.350878032418318</v>
+        <v>8.630359761342323</v>
       </c>
       <c r="E150">
-        <v>7.810501302751459</v>
+        <v>6.039923026235896</v>
       </c>
       <c r="F150">
-        <v>9.628241678162391</v>
+        <v>6.351934710781228</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.244535977785926</v>
+        <v>9.472067153596287</v>
       </c>
       <c r="C151">
-        <v>9.696020311968672</v>
+        <v>8.08251595854324</v>
       </c>
       <c r="D151">
-        <v>7.38173778262821</v>
+        <v>8.692080760048132</v>
       </c>
       <c r="E151">
-        <v>7.862740605694736</v>
+        <v>6.070361380162949</v>
       </c>
       <c r="F151">
-        <v>9.667210860139212</v>
+        <v>6.387712224090765</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.275331806002686</v>
+        <v>9.522230611773049</v>
       </c>
       <c r="C152">
-        <v>9.722695893696985</v>
+        <v>8.136514971803438</v>
       </c>
       <c r="D152">
-        <v>7.412261195716747</v>
+        <v>8.753795894783689</v>
       </c>
       <c r="E152">
-        <v>7.914751027490372</v>
+        <v>6.100588521135205</v>
       </c>
       <c r="F152">
-        <v>9.705891929357563</v>
+        <v>6.423296207758508</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.305852721804268</v>
+        <v>9.572272529419561</v>
       </c>
       <c r="C153">
-        <v>9.749078087547277</v>
+        <v>8.190413542327093</v>
       </c>
       <c r="D153">
-        <v>7.44245102401158</v>
+        <v>8.815505155544574</v>
       </c>
       <c r="E153">
-        <v>7.96653363637749</v>
+        <v>6.130605861230996</v>
       </c>
       <c r="F153">
-        <v>9.744289130569044</v>
+        <v>6.458687714205332</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.336101363414693</v>
+        <v>9.622194257478153</v>
       </c>
       <c r="C154">
-        <v>9.775172996801047</v>
+        <v>8.244211871209258</v>
       </c>
       <c r="D154">
-        <v>7.472310009824262</v>
+        <v>8.877208532423861</v>
       </c>
       <c r="E154">
-        <v>8.018089501337579</v>
+        <v>6.160414804610016</v>
       </c>
       <c r="F154">
-        <v>9.782406649663626</v>
+        <v>6.493887790405758</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.366080356153436</v>
+        <v>9.671997137084157</v>
       </c>
       <c r="C155">
-        <v>9.800986607792355</v>
+        <v>8.297910159197052</v>
       </c>
       <c r="D155">
-        <v>7.501840879547989</v>
+        <v>8.93890601877586</v>
       </c>
       <c r="E155">
-        <v>8.069419691565948</v>
+        <v>6.190016748879041</v>
       </c>
       <c r="F155">
-        <v>9.820248615958775</v>
+        <v>6.52889747800964</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.395792300789536</v>
+        <v>9.721682499395204</v>
       </c>
       <c r="C156">
-        <v>9.826524790885149</v>
+        <v>8.351508606681714</v>
       </c>
       <c r="D156">
-        <v>7.531046346605939</v>
+        <v>9.000597608821574</v>
       </c>
       <c r="E156">
-        <v>8.120525276700933</v>
+        <v>6.219413082819789</v>
       </c>
       <c r="F156">
-        <v>9.857819100429857</v>
+        <v>6.563717813224122</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.425239781040444</v>
+        <v>9.771251665847709</v>
       </c>
       <c r="C157">
-        <v>9.851793302815892</v>
+        <v>8.405007413697502</v>
       </c>
       <c r="D157">
-        <v>7.559929111679282</v>
+        <v>9.062283298824143</v>
       </c>
       <c r="E157">
-        <v>8.171407326101034</v>
+        <v>6.248605187761609</v>
       </c>
       <c r="F157">
-        <v>9.895122117453472</v>
+        <v>6.598349826929408</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.454425366801262</v>
+        <v>9.82070594860426</v>
       </c>
       <c r="C158">
-        <v>9.876797788781806</v>
+        <v>8.458406779915389</v>
       </c>
       <c r="D158">
-        <v>7.588491859828117</v>
+        <v>9.123963085932568</v>
       </c>
       <c r="E158">
-        <v>8.222066908233083</v>
+        <v>6.277594437773116</v>
       </c>
       <c r="F158">
-        <v>9.932161625798402</v>
+        <v>6.632794544567614</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.483351604756349</v>
+        <v>9.870046649561322</v>
       </c>
       <c r="C159">
-        <v>9.901543784622998</v>
+        <v>8.511706904641034</v>
       </c>
       <c r="D159">
-        <v>7.616737262078279</v>
+        <v>9.185636969026245</v>
       </c>
       <c r="E159">
-        <v>8.272505091941342</v>
+        <v>6.306382198343526</v>
       </c>
       <c r="F159">
-        <v>9.968941528750504</v>
+        <v>6.667052986299273</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.512021022455837</v>
+        <v>9.919275061103932</v>
       </c>
       <c r="C160">
-        <v>9.926036719047325</v>
+        <v>8.564907986811065</v>
       </c>
       <c r="D160">
-        <v>7.644667975158113</v>
+        <v>9.247304947615067</v>
       </c>
       <c r="E160">
-        <v>8.322722944641843</v>
+        <v>6.334969827402957</v>
       </c>
       <c r="F160">
-        <v>10.0054656750452</v>
+        <v>6.701126166850819</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.540436129977198</v>
+        <v>9.968392466746137</v>
       </c>
       <c r="C161">
-        <v>9.950281915274617</v>
+        <v>8.618010224989316</v>
       </c>
       <c r="D161">
-        <v>7.672286639939458</v>
+        <v>9.308967022595164</v>
       </c>
       <c r="E161">
-        <v>8.372721532279719</v>
+        <v>6.363358675051577</v>
       </c>
       <c r="F161">
-        <v>10.04173786000728</v>
+        <v>6.735015095541997</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.568599418517596</v>
+        <v>10.01740013983912</v>
       </c>
       <c r="C162">
-        <v>9.974284593487436</v>
+        <v>8.671013817365541</v>
       </c>
       <c r="D162">
-        <v>7.699595882577849</v>
+        <v>9.370623195648671</v>
       </c>
       <c r="E162">
-        <v>8.422501920802491</v>
+        <v>6.391550083152594</v>
       </c>
       <c r="F162">
-        <v>10.07776182553427</v>
+        <v>6.768720776448713</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.596513357111169</v>
+        <v>10.06629934445639</v>
       </c>
       <c r="C163">
-        <v>9.998049872858152</v>
+        <v>8.723918961750751</v>
       </c>
       <c r="D163">
-        <v>7.726598313940445</v>
+        <v>9.432273469435255</v>
       </c>
       <c r="E163">
-        <v>8.472065173775956</v>
+        <v>6.419545385830005</v>
       </c>
       <c r="F163">
-        <v>10.11354126118441</v>
+        <v>6.802244208367057</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.624180395921883</v>
+        <v>10.11509133574361</v>
       </c>
       <c r="C164">
-        <v>10.02158277356448</v>
+        <v>8.776725855576887</v>
       </c>
       <c r="D164">
-        <v>7.753296528534867</v>
+        <v>9.493917847552584</v>
       </c>
       <c r="E164">
-        <v>8.52141235321578</v>
+        <v>6.447345909087565</v>
       </c>
       <c r="F164">
-        <v>10.14907980504001</v>
+        <v>6.835586384542967</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.651602967248014</v>
+        <v>10.16377735952243</v>
       </c>
       <c r="C165">
-        <v>10.04488821837486</v>
+        <v>8.82943469589279</v>
       </c>
       <c r="D165">
-        <v>7.779693105923577</v>
+        <v>9.555556334291129</v>
       </c>
       <c r="E165">
-        <v>8.570544520068541</v>
+        <v>6.47495297084604</v>
       </c>
       <c r="F165">
-        <v>10.18438104409429</v>
+        <v>6.868748292991555</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.67878348046848</v>
+        <v>10.21235865222513</v>
       </c>
       <c r="C166">
-        <v>10.06797103418034</v>
+        <v>8.882045679363497</v>
       </c>
       <c r="D166">
-        <v>7.80579060938911</v>
+        <v>9.617188934841524</v>
       </c>
       <c r="E166">
-        <v>8.619462732663679</v>
+        <v>6.502367881253877</v>
       </c>
       <c r="F166">
-        <v>10.21944851513938</v>
+        <v>6.90173091677141</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.705724325329358</v>
+        <v>10.26083644142099</v>
       </c>
       <c r="C167">
-        <v>10.09083595588546</v>
+        <v>8.934559002267624</v>
       </c>
       <c r="D167">
-        <v>7.831591585693901</v>
+        <v>9.678815654975773</v>
       </c>
       <c r="E167">
-        <v>8.668168047396405</v>
+        <v>6.529591942165375</v>
       </c>
       <c r="F167">
-        <v>10.25428570569254</v>
+        <v>6.934535233243683</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.732427873096489</v>
+        <v>10.30921194587353</v>
       </c>
       <c r="C168">
-        <v>10.11348762615531</v>
+        <v>8.986974860495751</v>
       </c>
       <c r="D168">
-        <v>7.85709856643412</v>
+        <v>9.7404365011908</v>
       </c>
       <c r="E168">
-        <v>8.716661518702603</v>
+        <v>6.55662644749616</v>
       </c>
       <c r="F168">
-        <v>10.28889605433321</v>
+        <v>6.967162214617717</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.758896472968832</v>
+        <v>10.3574863751873</v>
       </c>
       <c r="C169">
-        <v>10.13593059712944</v>
+        <v>9.039293449549479</v>
       </c>
       <c r="D169">
-        <v>7.882314066012365</v>
+        <v>9.802051480578436</v>
       </c>
       <c r="E169">
-        <v>8.764944198230859</v>
+        <v>6.583472683316441</v>
       </c>
       <c r="F169">
-        <v>10.3232829516486</v>
+        <v>6.999612828117777</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.785132453580522</v>
+        <v>10.40566093025249</v>
       </c>
       <c r="C170">
-        <v>10.15816933489546</v>
+        <v>9.09151496453884</v>
       </c>
       <c r="D170">
-        <v>7.907240582530212</v>
+        <v>9.863660600725357</v>
       </c>
       <c r="E170">
-        <v>8.813017135199686</v>
+        <v>6.610131927444544</v>
       </c>
       <c r="F170">
-        <v>10.35744974059565</v>
+        <v>7.031888035563727</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.81113812421966</v>
+        <v>10.45373680332281</v>
       </c>
       <c r="C171">
-        <v>10.18020821854715</v>
+        <v>9.143639600182448</v>
       </c>
       <c r="D171">
-        <v>7.931880598220599</v>
+        <v>9.925263869863779</v>
       </c>
       <c r="E171">
-        <v>8.860881376425462</v>
+        <v>6.636605449849335</v>
       </c>
       <c r="F171">
-        <v>10.39139971772055</v>
+        <v>7.063988793585446</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.836915774174544</v>
+        <v>10.50171517790988</v>
       </c>
       <c r="C172">
-        <v>10.20205154201952</v>
+        <v>9.195667550805034</v>
       </c>
       <c r="D172">
-        <v>7.956236578004317</v>
+        <v>9.986861296589723</v>
       </c>
       <c r="E172">
-        <v>8.908537965511794</v>
+        <v>6.662894512559449</v>
       </c>
       <c r="F172">
-        <v>10.42513613355114</v>
+        <v>7.095916053712728</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.862467670620251</v>
+        <v>10.54959722899321</v>
       </c>
       <c r="C173">
-        <v>10.22370351844881</v>
+        <v>9.247599010337479</v>
       </c>
       <c r="D173">
-        <v>7.980310970370442</v>
+        <v>10.04845289004723</v>
       </c>
       <c r="E173">
-        <v>8.955987943342585</v>
+        <v>6.689000369508217</v>
       </c>
       <c r="F173">
-        <v>10.45866219291561</v>
+        <v>7.127670762357886</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.887796060937051</v>
+        <v>10.59738412309326</v>
       </c>
       <c r="C174">
-        <v>10.24516827919861</v>
+        <v>9.299434172315165</v>
       </c>
       <c r="D174">
-        <v>8.004106207416552</v>
+        <v>10.11003865974583</v>
       </c>
       <c r="E174">
-        <v>9.003232348031277</v>
+        <v>6.714924266828481</v>
       </c>
       <c r="F174">
-        <v>10.49198105638916</v>
+        <v>7.159253860746017</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9.91290317365775</v>
+        <v>10.64507701831695</v>
       </c>
       <c r="C175">
-        <v>10.26644987575188</v>
+        <v>9.351173229877512</v>
       </c>
       <c r="D175">
-        <v>8.027624703943102</v>
+        <v>10.17161861560224</v>
       </c>
       <c r="E175">
-        <v>9.050272214136314</v>
+        <v>6.74066744265955</v>
       </c>
       <c r="F175">
-        <v>10.52509584050475</v>
+        <v>7.190666285028152</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9.937791214894368</v>
+        <v>10.69267706445505</v>
       </c>
       <c r="C176">
-        <v>10.28755228364488</v>
+        <v>9.40281637576741</v>
       </c>
       <c r="D176">
-        <v>8.050868858197136</v>
+        <v>10.23319276792821</v>
       </c>
       <c r="E176">
-        <v>9.097108573267533</v>
+        <v>6.766231127220952</v>
       </c>
       <c r="F176">
-        <v>10.55800961800869</v>
+        <v>7.221908966296128</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9.96246237086631</v>
+        <v>10.74018540309223</v>
       </c>
       <c r="C177">
-        <v>10.3084794016089</v>
+        <v>9.454363802330009</v>
       </c>
       <c r="D177">
-        <v>8.073841051693435</v>
+        <v>10.29476112731757</v>
       </c>
       <c r="E177">
-        <v>9.143742453851909</v>
+        <v>6.79161654294901</v>
       </c>
       <c r="F177">
-        <v>10.59072541944579</v>
+        <v>7.252982830560081</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.986918808693924</v>
+        <v>10.78760316767235</v>
       </c>
       <c r="C178">
-        <v>10.32923505338261</v>
+        <v>9.505815701513074</v>
       </c>
       <c r="D178">
-        <v>8.096543648664083</v>
+        <v>10.35632370475299</v>
       </c>
       <c r="E178">
-        <v>9.190174880607701</v>
+        <v>6.816824904334072</v>
       </c>
       <c r="F178">
-        <v>10.62324623324213</v>
+        <v>7.283888798800118</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.01116267420456</v>
+        <v>10.83493148355237</v>
       </c>
       <c r="C179">
-        <v>10.34982299155731</v>
+        <v>9.557172264865642</v>
       </c>
       <c r="D179">
-        <v>8.118978997124779</v>
+        <v>10.41788051144835</v>
       </c>
       <c r="E179">
-        <v>9.236406875035364</v>
+        <v>6.841857418073362</v>
       </c>
       <c r="F179">
-        <v>10.65557500598913</v>
+        <v>7.314627787016701</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.03519609297312</v>
+        <v>10.8821714681318</v>
       </c>
       <c r="C180">
-        <v>10.37024689651865</v>
+        <v>9.608433683538466</v>
       </c>
       <c r="D180">
-        <v>8.141149427859691</v>
+        <v>10.47943155893269</v>
       </c>
       <c r="E180">
-        <v>9.282439455077546</v>
+        <v>6.866715283115334</v>
       </c>
       <c r="F180">
-        <v>10.68771464398107</v>
+        <v>7.345200706195905</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.05902117094361</v>
+        <v>10.9293242309527</v>
       </c>
       <c r="C181">
-        <v>10.39051037824115</v>
+        <v>9.659600148283113</v>
       </c>
       <c r="D181">
-        <v>8.163057254264309</v>
+        <v>10.54097685897671</v>
       </c>
       <c r="E181">
-        <v>9.328273634876952</v>
+        <v>6.891399690566202</v>
       </c>
       <c r="F181">
-        <v>10.7196680132881</v>
+        <v>7.375608462356978</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.08263999421467</v>
+        <v>10.97639087370936</v>
       </c>
       <c r="C182">
-        <v>10.41061698011213</v>
+        <v>9.710671849452147</v>
       </c>
       <c r="D182">
-        <v>8.184704772697462</v>
+        <v>10.60251642356698</v>
       </c>
       <c r="E182">
-        <v>9.373910425103347</v>
+        <v>6.915911823846606</v>
       </c>
       <c r="F182">
-        <v>10.75143793992707</v>
+        <v>7.405851956604797</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.10605462820297</v>
+        <v>11.02337249038902</v>
       </c>
       <c r="C183">
-        <v>10.43057017763492</v>
+        <v>9.761648976998858</v>
       </c>
       <c r="D183">
-        <v>8.206094263490622</v>
+        <v>10.66405026495548</v>
       </c>
       <c r="E183">
-        <v>9.419350832568766</v>
+        <v>6.94025285868079</v>
       </c>
       <c r="F183">
-        <v>10.78302721154138</v>
+        <v>7.435932085142641</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.12926711871356</v>
+        <v>11.0702701673442</v>
       </c>
       <c r="C184">
-        <v>10.45037338023966</v>
+        <v>9.812531720477018</v>
       </c>
       <c r="D184">
-        <v>8.227227990397058</v>
+        <v>10.72557839554801</v>
       </c>
       <c r="E184">
-        <v>9.464595860174022</v>
+        <v>6.964423963074056</v>
       </c>
       <c r="F184">
-        <v>10.81443857733495</v>
+        <v>7.46584973924895</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.1522794925021</v>
+        <v>11.11708498337214</v>
       </c>
       <c r="C185">
-        <v>10.47002993499132</v>
+        <v>9.863320269041253</v>
       </c>
       <c r="D185">
-        <v>8.248108198282797</v>
+        <v>10.78710082795832</v>
       </c>
       <c r="E185">
-        <v>9.509646507396498</v>
+        <v>6.988426297459173</v>
       </c>
       <c r="F185">
-        <v>10.84567474820023</v>
+        <v>7.495605805353114</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.17509375567728</v>
+        <v>11.16381800980202</v>
       </c>
       <c r="C186">
-        <v>10.48954312519702</v>
+        <v>9.914014811446549</v>
       </c>
       <c r="D186">
-        <v>8.268737115533529</v>
+        <v>10.84861757494245</v>
       </c>
       <c r="E186">
-        <v>9.554503769343574</v>
+        <v>7.012261014627873</v>
       </c>
       <c r="F186">
-        <v>10.87673839846483</v>
+        <v>7.525201165075953</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.19771189496503</v>
+        <v>11.21047031053356</v>
       </c>
       <c r="C187">
-        <v>10.50891617223144</v>
+        <v>9.964615536048875</v>
       </c>
       <c r="D187">
-        <v>8.289116954287442</v>
+        <v>10.91012864953877</v>
       </c>
       <c r="E187">
-        <v>9.599168637104105</v>
+        <v>7.035929259801014</v>
       </c>
       <c r="F187">
-        <v>10.90763216573139</v>
+        <v>7.554636695188051</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.22013587828705</v>
+        <v>11.25704294217488</v>
       </c>
       <c r="C188">
-        <v>10.52815223897883</v>
+        <v>10.01512263080485</v>
       </c>
       <c r="D188">
-        <v>8.30924991254982</v>
+        <v>10.9716340647357</v>
       </c>
       <c r="E188">
-        <v>9.643642097633402</v>
+        <v>7.059432170712425</v>
       </c>
       <c r="F188">
-        <v>10.93835865098842</v>
+        <v>7.583913267681483</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.24236765364186</v>
+        <v>11.30353695411598</v>
       </c>
       <c r="C189">
-        <v>10.54725442849527</v>
+        <v>10.06553628327227</v>
       </c>
       <c r="D189">
-        <v>8.32913816709484</v>
+        <v>11.03313383385999</v>
       </c>
       <c r="E189">
-        <v>9.687925134460965</v>
+        <v>7.082770877558016</v>
       </c>
       <c r="F189">
-        <v>10.96892042035894</v>
+        <v>7.613031749789417</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.26440914973819</v>
+        <v>11.34995338855756</v>
       </c>
       <c r="C190">
-        <v>10.56622578581302</v>
+        <v>10.11585668061013</v>
       </c>
       <c r="D190">
-        <v>8.348783879324159</v>
+        <v>11.09462797039748</v>
       </c>
       <c r="E190">
-        <v>9.732018726894347</v>
+        <v>7.105946503102039</v>
       </c>
       <c r="F190">
-        <v>10.99932000488872</v>
+        <v>7.641993004000036</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.28626227647339</v>
+        <v>11.39629328059767</v>
       </c>
       <c r="C191">
-        <v>10.58506930110334</v>
+        <v>10.16608400957891</v>
       </c>
       <c r="D191">
-        <v>8.368189193815411</v>
+        <v>11.15611648778903</v>
       </c>
       <c r="E191">
-        <v>9.775923849209171</v>
+        <v>7.128960162718002</v>
       </c>
       <c r="F191">
-        <v>11.02955990067701</v>
+        <v>7.670797888085936</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.30792892490275</v>
+        <v>11.44255765838858</v>
       </c>
       <c r="C192">
-        <v>10.60378790840409</v>
+        <v>10.21621845654103</v>
       </c>
       <c r="D192">
-        <v>8.3873562416968</v>
+        <v>11.21759939958293</v>
       </c>
       <c r="E192">
-        <v>9.81964147168104</v>
+        <v>7.151812964341203</v>
       </c>
       <c r="F192">
-        <v>11.05964257054636</v>
+        <v>7.699447255126191</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.32941096678142</v>
+        <v>11.48874754313268</v>
       </c>
       <c r="C193">
-        <v>10.62238448739426</v>
+        <v>10.26626020746086</v>
       </c>
       <c r="D193">
-        <v>8.406287133485149</v>
+        <v>11.27907671949001</v>
       </c>
       <c r="E193">
-        <v>9.863172560643855</v>
+        <v>7.174506008564949</v>
       </c>
       <c r="F193">
-        <v>11.08957044383275</v>
+        <v>7.727941953530915</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.35071025530489</v>
+        <v>11.53486394912148</v>
       </c>
       <c r="C194">
-        <v>10.64086186631671</v>
+        <v>10.31620944790552</v>
       </c>
       <c r="D194">
-        <v>8.424983964423921</v>
+        <v>11.34054846130456</v>
       </c>
       <c r="E194">
-        <v>9.906518079687778</v>
+        <v>7.197040388695172</v>
       </c>
       <c r="F194">
-        <v>11.11934591650879</v>
+        <v>7.75628282707004</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.37182862546465</v>
+        <v>11.58090788394714</v>
       </c>
       <c r="C195">
-        <v>10.65922282073503</v>
+        <v>10.36606636304487</v>
       </c>
       <c r="D195">
-        <v>8.443448813165574</v>
+        <v>11.40201463889725</v>
       </c>
       <c r="E195">
-        <v>9.94967898567503</v>
+        <v>7.219417190872966</v>
       </c>
       <c r="F195">
-        <v>11.14897135280258</v>
+        <v>7.784470714892752</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>10.39276789330581</v>
+        <v>11.62688034848406</v>
       </c>
       <c r="C196">
-        <v>10.67747007528429</v>
+        <v>10.41583113765225</v>
       </c>
       <c r="D196">
-        <v>8.461683743150186</v>
+        <v>11.46347526621268</v>
       </c>
       <c r="E196">
-        <v>9.992656231918232</v>
+        <v>7.241637493838008</v>
       </c>
       <c r="F196">
-        <v>11.1784490849712</v>
+        <v>7.812506451550867</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>10.41352985666816</v>
+        <v>11.67278233690874</v>
       </c>
       <c r="C197">
-        <v>10.6956063063821</v>
+        <v>10.46550395610475</v>
       </c>
       <c r="D197">
-        <v>8.479690800376648</v>
+        <v>11.5249303572757</v>
       </c>
       <c r="E197">
-        <v>10.03545076726359</v>
+        <v>7.263702369181416</v>
       </c>
       <c r="F197">
-        <v>11.20778141341071</v>
+        <v>7.840390867027978</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.4341162954867</v>
+        <v>11.71861483691193</v>
       </c>
       <c r="C198">
-        <v>10.71363414100684</v>
+        <v>10.51508500238377</v>
       </c>
       <c r="D198">
-        <v>8.497472014487103</v>
+        <v>11.58637992617555</v>
       </c>
       <c r="E198">
-        <v>10.07806353794651</v>
+        <v>7.28561288135238</v>
       </c>
       <c r="F198">
-        <v>11.23697060824213</v>
+        <v>7.868124786760215</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>10.45452897143313</v>
+        <v>11.76437882969238</v>
       </c>
       <c r="C199">
-        <v>10.73155615842734</v>
+        <v>10.56457446007557</v>
       </c>
       <c r="D199">
-        <v>8.51502939900797</v>
+        <v>11.64782398706055</v>
       </c>
       <c r="E199">
-        <v>10.1204954839093</v>
+        <v>7.307370087914396</v>
       </c>
       <c r="F199">
-        <v>11.26601890905621</v>
+        <v>7.895709031661527</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.47476962825875</v>
+        <v>11.81007528999175</v>
       </c>
       <c r="C200">
-        <v>10.74937489269534</v>
+        <v>10.61397251237165</v>
       </c>
       <c r="D200">
-        <v>8.532364951742061</v>
+        <v>11.70926255413077</v>
       </c>
       <c r="E200">
-        <v>10.16274754108794</v>
+        <v>7.328975039063747</v>
       </c>
       <c r="F200">
-        <v>11.29492852501565</v>
+        <v>7.92314441814773</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>10.49483999208268</v>
+        <v>11.85570518621944</v>
       </c>
       <c r="C201">
-        <v>10.76709283147388</v>
+        <v>10.66327934206952</v>
       </c>
       <c r="D201">
-        <v>8.54948065432418</v>
+        <v>11.77069564163633</v>
       </c>
       <c r="E201">
-        <v>10.204820641053</v>
+        <v>7.350428778061543</v>
       </c>
       <c r="F201">
-        <v>11.32370163640362</v>
+        <v>7.950431758160893</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10.51474177147979</v>
+        <v>11.90126948054797</v>
       </c>
       <c r="C202">
-        <v>10.78471241773743</v>
+        <v>10.71249513157306</v>
       </c>
       <c r="D202">
-        <v>8.566378471902661</v>
+        <v>11.83212326386056</v>
       </c>
       <c r="E202">
-        <v>10.24671571143877</v>
+        <v>7.371732341172476</v>
       </c>
       <c r="F202">
-        <v>11.35234039434469</v>
+        <v>7.977571859191809</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>10.53447665739325</v>
+        <v>11.94676912891214</v>
       </c>
       <c r="C203">
-        <v>10.80223605204004</v>
+        <v>10.76162006289327</v>
       </c>
       <c r="D203">
-        <v>8.58306035383875</v>
+        <v>11.89354543513022</v>
       </c>
       <c r="E203">
-        <v>10.28843367538443</v>
+        <v>7.392886757901437</v>
       </c>
       <c r="F203">
-        <v>11.380846920916</v>
+        <v>8.004565524304686</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>10.55404632352097</v>
+        <v>11.99220508106688</v>
       </c>
       <c r="C204">
-        <v>10.81966609059315</v>
+        <v>10.81065431764879</v>
       </c>
       <c r="D204">
-        <v>8.599528233797972</v>
+        <v>11.95496216980509</v>
       </c>
       <c r="E204">
-        <v>10.32997545107215</v>
+        <v>7.413893050630243</v>
       </c>
       <c r="F204">
-        <v>11.40922331062702</v>
+        <v>8.031413552164162</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>10.57345242656055</v>
+        <v>12.03757828077165</v>
       </c>
       <c r="C205">
-        <v>10.83700484791509</v>
+        <v>10.85959807706658</v>
       </c>
       <c r="D205">
-        <v>8.615784029964475</v>
+        <v>12.01637348227376</v>
       </c>
       <c r="E205">
-        <v>10.37134195243602</v>
+        <v>7.434752234949583</v>
       </c>
       <c r="F205">
-        <v>11.43747163006783</v>
+        <v>8.058116737055116</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>10.5926966059984</v>
+        <v>12.08288966575976</v>
       </c>
       <c r="C206">
-        <v>10.85425459972093</v>
+        <v>10.90845152198254</v>
       </c>
       <c r="D206">
-        <v>8.631829644140254</v>
+        <v>12.07777938694961</v>
       </c>
       <c r="E206">
-        <v>10.41253408902681</v>
+        <v>7.45546531962598</v>
       </c>
       <c r="F206">
-        <v>11.46559391766742</v>
+        <v>8.084675868900327</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>10.61178048450712</v>
+        <v>12.12814016774112</v>
       </c>
       <c r="C207">
-        <v>10.87141758176608</v>
+        <v>10.95721483284213</v>
       </c>
       <c r="D207">
-        <v>8.647666962688264</v>
+        <v>12.13917989828506</v>
       </c>
       <c r="E207">
-        <v>10.45355276629718</v>
+        <v>7.476033306694039</v>
       </c>
       <c r="F207">
-        <v>11.49359218618606</v>
+        <v>8.111091733300475</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>10.63070566815382</v>
+        <v>12.17333071265031</v>
       </c>
       <c r="C208">
-        <v>10.88849599096885</v>
+        <v>11.00588818970112</v>
       </c>
       <c r="D208">
-        <v>8.663297856492482</v>
+        <v>12.20057503070647</v>
       </c>
       <c r="E208">
-        <v>10.49439888461271</v>
+        <v>7.496457191403596</v>
       </c>
       <c r="F208">
-        <v>11.521468421766</v>
+        <v>8.137365111546492</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>10.64947374636293</v>
+        <v>12.21846222059013</v>
       </c>
       <c r="C209">
-        <v>10.90549197764618</v>
+        <v>11.05447177222617</v>
       </c>
       <c r="D209">
-        <v>8.678724181978028</v>
+        <v>12.26196479870154</v>
       </c>
       <c r="E209">
-        <v>10.5350733400411</v>
+        <v>7.516737962313577</v>
       </c>
       <c r="F209">
-        <v>11.54922458475469</v>
+        <v>8.163496780634594</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10.66808629214026</v>
+        <v>12.26353560582901</v>
       </c>
       <c r="C210">
-        <v>10.92240766640119</v>
+        <v>11.10296575969563</v>
       </c>
       <c r="D210">
-        <v>8.693947778890168</v>
+        <v>12.32334921672209</v>
       </c>
       <c r="E210">
-        <v>10.5755770241203</v>
+        <v>7.536876601330091</v>
       </c>
       <c r="F210">
-        <v>11.57686260829984</v>
+        <v>8.189487513307842</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>10.68654486226961</v>
+        <v>12.30855177701218</v>
       </c>
       <c r="C211">
-        <v>10.93924514215368</v>
+        <v>11.15137033100015</v>
       </c>
       <c r="D211">
-        <v>8.708970472142115</v>
+        <v>12.38472829927236</v>
       </c>
       <c r="E211">
-        <v>10.6159108244049</v>
+        <v>7.55687408371996</v>
       </c>
       <c r="F211">
-        <v>11.60438440066582</v>
+        <v>8.215338078071241</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>10.7048509974464</v>
+        <v>12.35351163716594</v>
       </c>
       <c r="C212">
-        <v>10.95600645500633</v>
+        <v>11.19968566464347</v>
       </c>
       <c r="D212">
-        <v>8.723794071436192</v>
+        <v>12.44610206083</v>
       </c>
       <c r="E212">
-        <v>10.65607562337301</v>
+        <v>7.576731378185733</v>
       </c>
       <c r="F212">
-        <v>11.63179184714421</v>
+        <v>8.241049239208955</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>10.72300622236326</v>
+        <v>12.39841608372991</v>
       </c>
       <c r="C213">
-        <v>10.97269361282175</v>
+        <v>11.24791193874307</v>
       </c>
       <c r="D213">
-        <v>8.73842037239713</v>
+        <v>12.50747051590074</v>
       </c>
       <c r="E213">
-        <v>10.69607229911555</v>
+        <v>7.596449446897125</v>
       </c>
       <c r="F213">
-        <v>11.65908680804585</v>
+        <v>8.266621756810304</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>10.74101204592391</v>
+        <v>12.44326600864039</v>
       </c>
       <c r="C214">
-        <v>10.98930858977414</v>
+        <v>11.29604933103095</v>
       </c>
       <c r="D214">
-        <v>8.752851154666837</v>
+        <v>12.56883367897536</v>
       </c>
       <c r="E214">
-        <v>10.73590172521824</v>
+        <v>7.616029245522024</v>
       </c>
       <c r="F214">
-        <v>11.68627111994368</v>
+        <v>8.292056386802267</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>10.75886996139383</v>
+        <v>12.48806229842049</v>
       </c>
       <c r="C215">
-        <v>11.00585333519406</v>
+        <v>11.34409801885438</v>
       </c>
       <c r="D215">
-        <v>8.767088183257636</v>
+        <v>12.63019156455372</v>
       </c>
       <c r="E215">
-        <v>10.77556477114056</v>
+        <v>7.635471723281733</v>
       </c>
       <c r="F215">
-        <v>11.71334658954027</v>
+        <v>8.317353880961514</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>10.77658144651308</v>
+        <v>12.5328058341849</v>
       </c>
       <c r="C216">
-        <v>11.02232976217636</v>
+        <v>11.39205817917657</v>
       </c>
       <c r="D216">
-        <v>8.781133208463462</v>
+        <v>12.69154418712499</v>
       </c>
       <c r="E216">
-        <v>10.81506230180263</v>
+        <v>7.654777822980666</v>
       </c>
       <c r="F216">
-        <v>11.74031500798851</v>
+        <v>8.342514986931393</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>10.79414796367328</v>
+        <v>12.57749749164237</v>
       </c>
       <c r="C217">
-        <v>11.03873975187553</v>
+        <v>11.43992998857752</v>
       </c>
       <c r="D217">
-        <v>8.794987966054709</v>
+        <v>12.75289156117964</v>
       </c>
       <c r="E217">
-        <v>10.85439517728479</v>
+        <v>7.673948481041936</v>
       </c>
       <c r="F217">
-        <v>11.76717814095751</v>
+        <v>8.367540448264604</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10.81157096004713</v>
+        <v>12.62213814133792</v>
       </c>
       <c r="C218">
-        <v>11.05508514092344</v>
+        <v>11.4877136232547</v>
       </c>
       <c r="D218">
-        <v>8.808654177162646</v>
+        <v>12.81423370119093</v>
       </c>
       <c r="E218">
-        <v>10.89356425334533</v>
+        <v>7.692984627558762</v>
       </c>
       <c r="F218">
-        <v>11.79393773169643</v>
+        <v>8.392431004431954</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>10.828851867759</v>
+        <v>12.66672864857333</v>
       </c>
       <c r="C219">
-        <v>11.07136775189696</v>
+        <v>11.53540925902387</v>
       </c>
       <c r="D219">
-        <v>8.82213354837973</v>
+        <v>12.87557062163835</v>
       </c>
       <c r="E219">
-        <v>10.93257038136255</v>
+        <v>7.711887186324589</v>
       </c>
       <c r="F219">
-        <v>11.82059549949631</v>
+        <v>8.417187390837011</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>10.84599210402667</v>
+        <v>12.71126987336885</v>
       </c>
       <c r="C220">
-        <v>11.08758937165511</v>
+        <v>11.5830170713198</v>
       </c>
       <c r="D220">
-        <v>8.8354277719592</v>
+        <v>12.93690233696563</v>
       </c>
       <c r="E220">
-        <v>10.97141440859708</v>
+        <v>7.730657074876428</v>
       </c>
       <c r="F220">
-        <v>11.84715314005986</v>
+        <v>8.441810338856909</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>10.86299307128956</v>
+        <v>12.75576267075928</v>
       </c>
       <c r="C221">
-        <v>11.10375175788485</v>
+        <v>11.63053723519708</v>
       </c>
       <c r="D221">
-        <v>8.848538525839441</v>
+        <v>12.99822886163804</v>
       </c>
       <c r="E221">
-        <v>11.01009717733376</v>
+        <v>7.749295204547678</v>
       </c>
       <c r="F221">
-        <v>11.8736123315342</v>
+        <v>8.466300575856298</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10.87985615736015</v>
+        <v>12.80020789069074</v>
       </c>
       <c r="C222">
-        <v>11.1198566354804</v>
+        <v>11.6779699253309</v>
       </c>
       <c r="D222">
-        <v>8.861467473744337</v>
+        <v>13.05955021006536</v>
       </c>
       <c r="E222">
-        <v>11.04861952560035</v>
+        <v>7.767802480494905</v>
       </c>
       <c r="F222">
-        <v>11.89997472915816</v>
+        <v>8.490658825197011</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>10.89658273561203</v>
+        <v>12.84460637807672</v>
       </c>
       <c r="C223">
-        <v>11.13590570063193</v>
+        <v>11.72531531601779</v>
       </c>
       <c r="D223">
-        <v>8.874216265337054</v>
+        <v>13.1208663966876</v>
       </c>
       <c r="E223">
-        <v>11.08698228697769</v>
+        <v>7.786179801736782</v>
       </c>
       <c r="F223">
-        <v>11.92624196730299</v>
+        <v>8.514885806269806</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>10.91317416507449</v>
+        <v>12.88895897289951</v>
       </c>
       <c r="C224">
-        <v>11.15190062688628</v>
+        <v>11.77257358117645</v>
       </c>
       <c r="D224">
-        <v>8.88678653624914</v>
+        <v>13.18217743587999</v>
       </c>
       <c r="E224">
-        <v>11.12518629097459</v>
+        <v>7.80442806119069</v>
       </c>
       <c r="F224">
-        <v>11.95241565678479</v>
+        <v>8.53898223453475</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>10.92963179049288</v>
+        <v>12.93326651026149</v>
       </c>
       <c r="C225">
-        <v>11.16784305852017</v>
+        <v>11.81974489434853</v>
       </c>
       <c r="D225">
-        <v>8.899179908281816</v>
+        <v>13.24348334204011</v>
       </c>
       <c r="E225">
-        <v>11.1632323623129</v>
+        <v>7.822548145735194</v>
       </c>
       <c r="F225">
-        <v>11.97849739070296</v>
+        <v>8.562948821523369</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>10.94595694272353</v>
+        <v>12.97752982039906</v>
       </c>
       <c r="C226">
-        <v>11.18373461343178</v>
+        <v>11.8668294286994</v>
       </c>
       <c r="D226">
-        <v>8.911397989748369</v>
+        <v>13.30478412948132</v>
       </c>
       <c r="E226">
-        <v>11.20112132140721</v>
+        <v>7.840540936230378</v>
       </c>
       <c r="F226">
-        <v>12.00448874196949</v>
+        <v>8.586786274867519</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>10.96215093870071</v>
+        <v>13.02174972873983</v>
       </c>
       <c r="C227">
-        <v>11.19957687860555</v>
+        <v>11.91382735701892</v>
       </c>
       <c r="D227">
-        <v>8.923442374828898</v>
+        <v>13.36607981258829</v>
       </c>
       <c r="E227">
-        <v>11.23885398429243</v>
+        <v>7.858407307552604</v>
       </c>
       <c r="F227">
-        <v>12.03039126340361</v>
+        <v>8.610495298281178</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>10.97821508163176</v>
+        <v>13.06592705601302</v>
       </c>
       <c r="C228">
-        <v>11.2153714219366</v>
+        <v>11.96073885172236</v>
       </c>
       <c r="D228">
-        <v>8.935314644271855</v>
+        <v>13.42737040572588</v>
       </c>
       <c r="E228">
-        <v>11.27643116274901</v>
+        <v>7.876148128603151</v>
       </c>
       <c r="F228">
-        <v>12.05620648802914</v>
+        <v>8.634076591618225</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>10.99415066109977</v>
+        <v>13.1100626182387</v>
       </c>
       <c r="C229">
-        <v>11.23111978451102</v>
+        <v>12.00756408485104</v>
       </c>
       <c r="D229">
-        <v>8.947016365335188</v>
+        <v>13.48865592317886</v>
       </c>
       <c r="E229">
-        <v>11.31385366417523</v>
+        <v>7.893764262439741</v>
       </c>
       <c r="F229">
-        <v>12.08193592840342</v>
+        <v>8.657530850943497</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.00995895276549</v>
+        <v>13.15415722672514</v>
       </c>
       <c r="C230">
-        <v>11.24682348338972</v>
+        <v>12.05430322807315</v>
       </c>
       <c r="D230">
-        <v>8.958549092112829</v>
+        <v>13.54993637918836</v>
       </c>
       <c r="E230">
-        <v>11.35112229150892</v>
+        <v>7.911256566242176</v>
       </c>
       <c r="F230">
-        <v>12.1075810802653</v>
+        <v>8.680858768485205</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.02564121962515</v>
+        <v>13.19821168827148</v>
       </c>
       <c r="C231">
-        <v>11.26248400868762</v>
+        <v>12.10095645268472</v>
       </c>
       <c r="D231">
-        <v>8.969914365162703</v>
+        <v>13.61121178799716</v>
       </c>
       <c r="E231">
-        <v>11.38823784339806</v>
+        <v>7.928625891366787</v>
       </c>
       <c r="F231">
-        <v>12.13314342005876</v>
+        <v>8.704061032680119</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.04119871127977</v>
+        <v>13.24222680511098</v>
       </c>
       <c r="C232">
-        <v>11.27810282637816</v>
+        <v>12.14752392961016</v>
       </c>
       <c r="D232">
-        <v>8.981113711952283</v>
+        <v>13.67248216382908</v>
       </c>
       <c r="E232">
-        <v>11.42520111420718</v>
+        <v>7.945873083340872</v>
       </c>
       <c r="F232">
-        <v>12.1586244060174</v>
+        <v>8.727138328130028</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.05663266431612</v>
+        <v>13.28620337489261</v>
       </c>
       <c r="C233">
-        <v>11.29368138437193</v>
+        <v>12.19400582940325</v>
       </c>
       <c r="D233">
-        <v>8.992148646871822</v>
+        <v>13.73374752088075</v>
       </c>
       <c r="E233">
-        <v>11.46201289413457</v>
+        <v>7.962998982004252</v>
       </c>
       <c r="F233">
-        <v>12.18402547455747</v>
+        <v>8.750091335679183</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.07194430241729</v>
+        <v>13.33014219088702</v>
       </c>
       <c r="C234">
-        <v>11.3092211063064</v>
+        <v>12.24040232224795</v>
       </c>
       <c r="D234">
-        <v>9.003020671449796</v>
+        <v>13.79500787332042</v>
       </c>
       <c r="E234">
-        <v>11.49867396886253</v>
+        <v>7.980004421471061</v>
       </c>
       <c r="F234">
-        <v>12.20934804668937</v>
+        <v>8.772920732519131</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.0871348356105</v>
+        <v>13.37404404194499</v>
       </c>
       <c r="C235">
-        <v>11.32472339420733</v>
+        <v>12.28671357795904</v>
       </c>
       <c r="D235">
-        <v>9.013731274268819</v>
+        <v>13.85626323528804</v>
       </c>
       <c r="E235">
-        <v>11.53518511987063</v>
+        <v>7.996890230188439</v>
       </c>
       <c r="F235">
-        <v>12.23459352794143</v>
+        <v>8.795627192091983</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.10220546248427</v>
+        <v>13.41790971251264</v>
       </c>
       <c r="C236">
-        <v>11.34018962196324</v>
+        <v>12.3329397659831</v>
       </c>
       <c r="D236">
-        <v>9.024281931139228</v>
+        <v>13.91751362089524</v>
       </c>
       <c r="E236">
-        <v>11.57154712436565</v>
+        <v>8.01365723090546</v>
       </c>
       <c r="F236">
-        <v>12.25976330549163</v>
+        <v>8.818211384150594</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.11715736871714</v>
+        <v>13.46173998271971</v>
       </c>
       <c r="C237">
-        <v>11.35562115067174</v>
+        <v>12.37908105539922</v>
       </c>
       <c r="D237">
-        <v>9.034674105229877</v>
+        <v>13.97875904422441</v>
       </c>
       <c r="E237">
-        <v>11.6077607555145</v>
+        <v>8.030306240850726</v>
       </c>
       <c r="F237">
-        <v>12.28485874981682</v>
+        <v>8.840673974718692</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.13199172764667</v>
+        <v>13.50553562845006</v>
       </c>
       <c r="C238">
-        <v>11.3710193181797</v>
+        <v>12.42513761491981</v>
       </c>
       <c r="D238">
-        <v>9.044909247104973</v>
+        <v>14.03999951932725</v>
       </c>
       <c r="E238">
-        <v>11.64382678202504</v>
+        <v>8.046838071671305</v>
       </c>
       <c r="F238">
-        <v>12.30988121502576</v>
+        <v>8.863015626160797</v>
       </c>
     </row>
   </sheetData>
